--- a/PythonResources/Data/Consumption/Sympheny/base_1631_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1631_coo.xlsx
@@ -351,7 +351,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3.331016118320985</v>
+        <v>3.331016118320984</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -511,7 +511,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>9.94773957238591</v>
+        <v>9.947739572385908</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -607,7 +607,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1.662017583090036</v>
+        <v>1.662017583090035</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -695,7 +695,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>3.566352162366045</v>
+        <v>3.566352162366044</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -831,7 +831,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>39.5382138258021</v>
+        <v>39.53821382580209</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -927,7 +927,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>8.514504964916467</v>
+        <v>8.514504964916465</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -943,7 +943,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>4.767503814319569</v>
+        <v>4.767503814319568</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1255,7 +1255,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>1.240631251571594</v>
+        <v>1.240631251571593</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>2.011235171338122</v>
+        <v>2.011235171338121</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>1.679282397977576</v>
+        <v>1.679282397977575</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>1.452199234381219</v>
+        <v>1.452199234381218</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>7.905620574993655</v>
+        <v>7.905620574993654</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>6.571150907553086</v>
+        <v>6.571150907553085</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>0.8997310194007168</v>
+        <v>0.8997310194007166</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>2.660809544268674</v>
+        <v>2.660809544268673</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2007,7 +2007,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>5.844774338230942</v>
+        <v>5.844774338230941</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2167,7 +2167,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>37.58167157169896</v>
+        <v>37.58167157169895</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>6.917355725523733</v>
+        <v>6.917355725523732</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>42.90384163378899</v>
+        <v>42.90384163378898</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>2.540049622788267</v>
+        <v>2.540049622788266</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2751,7 +2751,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>73.30351433205301</v>
+        <v>73.303514332053</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2759,7 +2759,7 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>81.37263923951583</v>
+        <v>81.37263923951582</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2767,7 +2767,7 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>87.11184938962096</v>
+        <v>87.11184938962094</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>81.13818240858676</v>
+        <v>81.13818240858674</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>5.79149402340231</v>
+        <v>5.791494023402309</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>324</v>
       </c>
       <c r="B324">
-        <v>42.85812255175782</v>
+        <v>42.85812255175781</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>331</v>
       </c>
       <c r="B331">
-        <v>6.873863983386389</v>
+        <v>6.873863983386388</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3007,7 +3007,7 @@
         <v>333</v>
       </c>
       <c r="B333">
-        <v>5.255730857625504</v>
+        <v>5.255730857625503</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>351</v>
       </c>
       <c r="B351">
-        <v>40.0097651270082</v>
+        <v>40.00976512700819</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>352</v>
       </c>
       <c r="B352">
-        <v>35.30421653026164</v>
+        <v>35.30421653026163</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>356</v>
       </c>
       <c r="B356">
-        <v>2.60687275031344</v>
+        <v>2.606872750313439</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3199,7 +3199,7 @@
         <v>357</v>
       </c>
       <c r="B357">
-        <v>2.672881140351135</v>
+        <v>2.672881140351134</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>378</v>
       </c>
       <c r="B378">
-        <v>7.555605833520411</v>
+        <v>7.55560583352041</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>379</v>
       </c>
       <c r="B379">
-        <v>5.39124690590251</v>
+        <v>5.391246905902509</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>385</v>
       </c>
       <c r="B385">
-        <v>1.457530196574469</v>
+        <v>1.457530196574468</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>0.927311934849136</v>
+        <v>0.9273119348491358</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>393</v>
       </c>
       <c r="B393">
-        <v>0.871851171492863</v>
+        <v>0.8718511714928628</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>395</v>
       </c>
       <c r="B395">
-        <v>11.58717896265748</v>
+        <v>11.58717896265747</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>23.35782039551696</v>
+        <v>23.35782039551695</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>410</v>
       </c>
       <c r="B410">
-        <v>0.758799018329249</v>
+        <v>0.7587990183292489</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>411</v>
       </c>
       <c r="B411">
-        <v>0.6127118976877282</v>
+        <v>0.612711897687728</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>420</v>
       </c>
       <c r="B420">
-        <v>17.93873174094162</v>
+        <v>17.93873174094161</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3903,7 +3903,7 @@
         <v>445</v>
       </c>
       <c r="B445">
-        <v>0.2781343801049312</v>
+        <v>0.2781343801049311</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3919,7 +3919,7 @@
         <v>447</v>
       </c>
       <c r="B447">
-        <v>0.3206519541097645</v>
+        <v>0.3206519541097644</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -4039,7 +4039,7 @@
         <v>462</v>
       </c>
       <c r="B462">
-        <v>0.7609941204088224</v>
+        <v>0.7609941204088223</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4063,7 +4063,7 @@
         <v>465</v>
       </c>
       <c r="B465">
-        <v>1.030631198818807</v>
+        <v>1.030631198818806</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>11.46534933188596</v>
+        <v>11.46534933188595</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>484</v>
       </c>
       <c r="B484">
-        <v>0.8816719819984046</v>
+        <v>0.8816719819984045</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>488</v>
       </c>
       <c r="B488">
-        <v>0.9771721106565906</v>
+        <v>0.9771721106565904</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4383,7 +4383,7 @@
         <v>505</v>
       </c>
       <c r="B505">
-        <v>0.5979674937326759</v>
+        <v>0.5979674937326758</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>508</v>
       </c>
       <c r="B508">
-        <v>0.4729844185851586</v>
+        <v>0.4729844185851585</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>509</v>
       </c>
       <c r="B509">
-        <v>0.4981914586204209</v>
+        <v>0.4981914586204208</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>512</v>
       </c>
       <c r="B512">
-        <v>0.7365138965494403</v>
+        <v>0.7365138965494402</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4487,7 +4487,7 @@
         <v>518</v>
       </c>
       <c r="B518">
-        <v>0.2747262569963384</v>
+        <v>0.2747262569963383</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4583,7 +4583,7 @@
         <v>530</v>
       </c>
       <c r="B530">
-        <v>0.8701923894140396</v>
+        <v>0.8701923894140395</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4599,7 +4599,7 @@
         <v>532</v>
       </c>
       <c r="B532">
-        <v>0.6433114448343593</v>
+        <v>0.6433114448343592</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4631,7 +4631,7 @@
         <v>536</v>
       </c>
       <c r="B536">
-        <v>0.5493821769433981</v>
+        <v>0.549382176943398</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>550</v>
       </c>
       <c r="B550">
-        <v>1.764267137768593</v>
+        <v>1.764267137768592</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4767,7 +4767,7 @@
         <v>553</v>
       </c>
       <c r="B553">
-        <v>0.7096861736703808</v>
+        <v>0.7096861736703807</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4783,7 +4783,7 @@
         <v>555</v>
       </c>
       <c r="B555">
-        <v>0.4548462520024079</v>
+        <v>0.4548462520024078</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -5071,7 +5071,7 @@
         <v>591</v>
       </c>
       <c r="B591">
-        <v>0.6078967405225223</v>
+        <v>0.6078967405225222</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5079,7 +5079,7 @@
         <v>592</v>
       </c>
       <c r="B592">
-        <v>0.6822869622659316</v>
+        <v>0.6822869622659314</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>0.8726629782699549</v>
+        <v>0.8726629782699548</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5255,7 +5255,7 @@
         <v>614</v>
       </c>
       <c r="B614">
-        <v>6.068885761495273</v>
+        <v>6.068885761495272</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>616</v>
       </c>
       <c r="B616">
-        <v>2.676509359809762</v>
+        <v>2.676509359809761</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5359,7 +5359,7 @@
         <v>627</v>
       </c>
       <c r="B627">
-        <v>0.8953789144765957</v>
+        <v>0.8953789144765956</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5423,7 +5423,7 @@
         <v>635</v>
       </c>
       <c r="B635">
-        <v>13.39331715971962</v>
+        <v>13.39331715971961</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5551,7 +5551,7 @@
         <v>651</v>
       </c>
       <c r="B651">
-        <v>0.5030329921791064</v>
+        <v>0.5030329921791062</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>685</v>
       </c>
       <c r="B685">
-        <v>28.17781323286077</v>
+        <v>28.17781323286076</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5951,7 +5951,7 @@
         <v>701</v>
       </c>
       <c r="B701">
-        <v>0.926766822717226</v>
+        <v>0.9267668227172258</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5999,7 +5999,7 @@
         <v>707</v>
       </c>
       <c r="B707">
-        <v>0.7329179149050656</v>
+        <v>0.7329179149050655</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6103,7 +6103,7 @@
         <v>720</v>
       </c>
       <c r="B720">
-        <v>1.474035957471876</v>
+        <v>1.474035957471875</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6327,7 +6327,7 @@
         <v>748</v>
       </c>
       <c r="B748">
-        <v>0.6640784586339021</v>
+        <v>0.664078458633902</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>753</v>
       </c>
       <c r="B753">
-        <v>0.8247693091319178</v>
+        <v>0.8247693091319177</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6551,7 +6551,7 @@
         <v>776</v>
       </c>
       <c r="B776">
-        <v>1.121421675885705</v>
+        <v>1.121421675885704</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6615,7 +6615,7 @@
         <v>784</v>
       </c>
       <c r="B784">
-        <v>0.5770539444138023</v>
+        <v>0.5770539444138022</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6695,7 +6695,7 @@
         <v>794</v>
       </c>
       <c r="B794">
-        <v>0.8783573485511448</v>
+        <v>0.8783573485511447</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6711,7 +6711,7 @@
         <v>796</v>
       </c>
       <c r="B796">
-        <v>0.6445452739071236</v>
+        <v>0.6445452739071235</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6743,7 +6743,7 @@
         <v>800</v>
       </c>
       <c r="B800">
-        <v>0.52339263723491</v>
+        <v>0.5233926372349099</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>841</v>
       </c>
       <c r="B841">
-        <v>0.4904338682270551</v>
+        <v>0.490433868227055</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7199,7 +7199,7 @@
         <v>857</v>
       </c>
       <c r="B857">
-        <v>2.507407370502166</v>
+        <v>2.507407370502165</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7367,7 +7367,7 @@
         <v>878</v>
       </c>
       <c r="B878">
-        <v>25.94962343302243</v>
+        <v>25.94962343302242</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>901</v>
       </c>
       <c r="B901">
-        <v>0.5361177817335856</v>
+        <v>0.5361177817335855</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7567,7 +7567,7 @@
         <v>903</v>
       </c>
       <c r="B903">
-        <v>0.6530736411321687</v>
+        <v>0.6530736411321686</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -7639,7 +7639,7 @@
         <v>912</v>
       </c>
       <c r="B912">
-        <v>2.242934203793395</v>
+        <v>2.242934203793394</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7743,7 +7743,7 @@
         <v>925</v>
       </c>
       <c r="B925">
-        <v>0.7618410957105538</v>
+        <v>0.7618410957105537</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7799,7 +7799,7 @@
         <v>932</v>
       </c>
       <c r="B932">
-        <v>3.501349005990959</v>
+        <v>3.501349005990958</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -7823,7 +7823,7 @@
         <v>935</v>
       </c>
       <c r="B935">
-        <v>3.983157793550209</v>
+        <v>3.98315779355021</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -7935,7 +7935,7 @@
         <v>949</v>
       </c>
       <c r="B949">
-        <v>7.370326322878708</v>
+        <v>7.370326322878707</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>958</v>
       </c>
       <c r="B958">
-        <v>4.462651319904038</v>
+        <v>4.462651319904037</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8023,7 +8023,7 @@
         <v>960</v>
       </c>
       <c r="B960">
-        <v>3.05500181410973</v>
+        <v>3.055001814109729</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8111,7 +8111,7 @@
         <v>971</v>
       </c>
       <c r="B971">
-        <v>8.704356383761287</v>
+        <v>8.704356383761285</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8127,7 +8127,7 @@
         <v>973</v>
       </c>
       <c r="B973">
-        <v>2.727943327094828</v>
+        <v>2.727943327094827</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -8151,7 +8151,7 @@
         <v>976</v>
       </c>
       <c r="B976">
-        <v>6.260730063402989</v>
+        <v>6.260730063402988</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8343,7 +8343,7 @@
         <v>1000</v>
       </c>
       <c r="B1000">
-        <v>38.41252796630387</v>
+        <v>38.41252796630386</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -8359,7 +8359,7 @@
         <v>1002</v>
       </c>
       <c r="B1002">
-        <v>9.381409097276729</v>
+        <v>9.381409097276723</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8431,7 +8431,7 @@
         <v>1011</v>
       </c>
       <c r="B1011">
-        <v>1.320748081410446</v>
+        <v>1.320748081410445</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -8519,7 +8519,7 @@
         <v>1022</v>
       </c>
       <c r="B1022">
-        <v>4.269722655153274</v>
+        <v>4.269722655153273</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8527,7 +8527,7 @@
         <v>1023</v>
       </c>
       <c r="B1023">
-        <v>9.441371431786838</v>
+        <v>9.441371431786836</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8543,7 +8543,7 @@
         <v>1025</v>
       </c>
       <c r="B1025">
-        <v>0.9488116262453322</v>
+        <v>0.948811626245332</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -8623,7 +8623,7 @@
         <v>1035</v>
       </c>
       <c r="B1035">
-        <v>0.829218127498797</v>
+        <v>0.8292181274987969</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -9135,7 +9135,7 @@
         <v>1099</v>
       </c>
       <c r="B1099">
-        <v>2.18335579234393</v>
+        <v>2.183355792343929</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
@@ -9239,7 +9239,7 @@
         <v>1112</v>
       </c>
       <c r="B1112">
-        <v>1.29189230694385</v>
+        <v>1.291892306943849</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
@@ -9271,7 +9271,7 @@
         <v>1116</v>
       </c>
       <c r="B1116">
-        <v>0.6051037735240796</v>
+        <v>0.6051037735240795</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -9335,7 +9335,7 @@
         <v>1124</v>
       </c>
       <c r="B1124">
-        <v>2.185342813986054</v>
+        <v>2.185342813986053</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
@@ -9399,7 +9399,7 @@
         <v>1132</v>
       </c>
       <c r="B1132">
-        <v>0.6519951397098949</v>
+        <v>0.6519951397098948</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
@@ -9407,7 +9407,7 @@
         <v>1133</v>
       </c>
       <c r="B1133">
-        <v>0.5672419260394205</v>
+        <v>0.5672419260394204</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -9423,7 +9423,7 @@
         <v>1135</v>
       </c>
       <c r="B1135">
-        <v>0.6621559126202837</v>
+        <v>0.6621559126202836</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
@@ -9495,7 +9495,7 @@
         <v>1144</v>
       </c>
       <c r="B1144">
-        <v>0.8270904317581157</v>
+        <v>0.8270904317581156</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
@@ -9799,7 +9799,7 @@
         <v>1182</v>
       </c>
       <c r="B1182">
-        <v>0.821196773170636</v>
+        <v>0.8211967731706359</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
@@ -9831,7 +9831,7 @@
         <v>1186</v>
       </c>
       <c r="B1186">
-        <v>1.481488753985034</v>
+        <v>1.481488753985033</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
@@ -9951,7 +9951,7 @@
         <v>1201</v>
       </c>
       <c r="B1201">
-        <v>1.529822029681063</v>
+        <v>1.529822029681062</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
@@ -9991,7 +9991,7 @@
         <v>1206</v>
       </c>
       <c r="B1206">
-        <v>1.5560636104828</v>
+        <v>1.556063610482799</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
@@ -10047,7 +10047,7 @@
         <v>1213</v>
       </c>
       <c r="B1213">
-        <v>0.9372499737701422</v>
+        <v>0.937249973770142</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
@@ -10271,7 +10271,7 @@
         <v>1241</v>
       </c>
       <c r="B1241">
-        <v>7.423811787434404</v>
+        <v>7.423811787434403</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -10279,7 +10279,7 @@
         <v>1242</v>
       </c>
       <c r="B1242">
-        <v>4.941324247349613</v>
+        <v>4.941324247349612</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
@@ -10287,7 +10287,7 @@
         <v>1243</v>
       </c>
       <c r="B1243">
-        <v>7.904565519254475</v>
+        <v>7.904565519254474</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
@@ -10327,7 +10327,7 @@
         <v>1248</v>
       </c>
       <c r="B1248">
-        <v>5.665590705193395</v>
+        <v>5.665590705193394</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
@@ -10511,7 +10511,7 @@
         <v>1271</v>
       </c>
       <c r="B1271">
-        <v>7.56797343135192</v>
+        <v>7.567973431351919</v>
       </c>
     </row>
     <row r="1272" spans="1:2">
@@ -10527,7 +10527,7 @@
         <v>1273</v>
       </c>
       <c r="B1273">
-        <v>3.539887847574926</v>
+        <v>3.539887847574925</v>
       </c>
     </row>
     <row r="1274" spans="1:2">
@@ -10543,7 +10543,7 @@
         <v>1275</v>
       </c>
       <c r="B1275">
-        <v>2.655387730053439</v>
+        <v>2.655387730053438</v>
       </c>
     </row>
     <row r="1276" spans="1:2">
@@ -10639,7 +10639,7 @@
         <v>1287</v>
       </c>
       <c r="B1287">
-        <v>1.391061685006076</v>
+        <v>1.391061685006075</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
@@ -10807,7 +10807,7 @@
         <v>1308</v>
       </c>
       <c r="B1308">
-        <v>41.62751726041883</v>
+        <v>41.62751726041882</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
@@ -10903,7 +10903,7 @@
         <v>1320</v>
       </c>
       <c r="B1320">
-        <v>5.027721589546977</v>
+        <v>5.027721589546976</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
@@ -10935,7 +10935,7 @@
         <v>1324</v>
       </c>
       <c r="B1324">
-        <v>2.281607858055146</v>
+        <v>2.281607858055145</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
@@ -11031,7 +11031,7 @@
         <v>1336</v>
       </c>
       <c r="B1336">
-        <v>69.30690457782825</v>
+        <v>69.30690457782823</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
@@ -11103,7 +11103,7 @@
         <v>1345</v>
       </c>
       <c r="B1345">
-        <v>6.96454016274821</v>
+        <v>6.964540162748209</v>
       </c>
     </row>
     <row r="1346" spans="1:2">
@@ -11279,7 +11279,7 @@
         <v>1367</v>
       </c>
       <c r="B1367">
-        <v>7.948819246092338</v>
+        <v>7.948819246092337</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
@@ -11287,7 +11287,7 @@
         <v>1368</v>
       </c>
       <c r="B1368">
-        <v>4.202814537026889</v>
+        <v>4.202814537026888</v>
       </c>
     </row>
     <row r="1369" spans="1:2">
@@ -11391,7 +11391,7 @@
         <v>1381</v>
       </c>
       <c r="B1381">
-        <v>7.63552630576336</v>
+        <v>7.635526305763359</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
@@ -11543,7 +11543,7 @@
         <v>1400</v>
       </c>
       <c r="B1400">
-        <v>3.961030930131279</v>
+        <v>3.961030930131278</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
@@ -11551,7 +11551,7 @@
         <v>1401</v>
       </c>
       <c r="B1401">
-        <v>5.15371282906749</v>
+        <v>5.153712829067489</v>
       </c>
     </row>
     <row r="1402" spans="1:2">
@@ -11679,7 +11679,7 @@
         <v>1417</v>
       </c>
       <c r="B1417">
-        <v>2.452310015233833</v>
+        <v>2.452310015233832</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
@@ -11951,7 +11951,7 @@
         <v>1451</v>
       </c>
       <c r="B1451">
-        <v>0.9583510885537592</v>
+        <v>0.9583510885537589</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
@@ -12087,7 +12087,7 @@
         <v>1468</v>
       </c>
       <c r="B1468">
-        <v>0.8491674731004748</v>
+        <v>0.8491674731004747</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
@@ -12199,7 +12199,7 @@
         <v>1482</v>
       </c>
       <c r="B1482">
-        <v>5.448718136584</v>
+        <v>5.448718136583999</v>
       </c>
     </row>
     <row r="1483" spans="1:2">
@@ -12287,7 +12287,7 @@
         <v>1493</v>
       </c>
       <c r="B1493">
-        <v>0.6496828092148569</v>
+        <v>0.6496828092148568</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
@@ -12583,7 +12583,7 @@
         <v>1530</v>
       </c>
       <c r="B1530">
-        <v>18.60602518886964</v>
+        <v>18.60602518886963</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
@@ -12647,7 +12647,7 @@
         <v>1538</v>
       </c>
       <c r="B1538">
-        <v>1.619196973631227</v>
+        <v>1.619196973631226</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
@@ -12703,7 +12703,7 @@
         <v>1545</v>
       </c>
       <c r="B1545">
-        <v>8.934915369876167</v>
+        <v>8.934915369876165</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
@@ -12735,7 +12735,7 @@
         <v>1549</v>
       </c>
       <c r="B1549">
-        <v>30.38033000971238</v>
+        <v>30.38033000971237</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
@@ -12751,7 +12751,7 @@
         <v>1551</v>
       </c>
       <c r="B1551">
-        <v>39.63756490790829</v>
+        <v>39.63756490790828</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
@@ -12919,7 +12919,7 @@
         <v>1572</v>
       </c>
       <c r="B1572">
-        <v>47.03848784722325</v>
+        <v>47.03848784722324</v>
       </c>
     </row>
     <row r="1573" spans="1:2">
@@ -13023,7 +13023,7 @@
         <v>1585</v>
       </c>
       <c r="B1585">
-        <v>8.506211054522351</v>
+        <v>8.50621105452235</v>
       </c>
     </row>
     <row r="1586" spans="1:2">
@@ -13071,7 +13071,7 @@
         <v>1591</v>
       </c>
       <c r="B1591">
-        <v>3.242127672294999</v>
+        <v>3.242127672294998</v>
       </c>
     </row>
     <row r="1592" spans="1:2">
@@ -13143,7 +13143,7 @@
         <v>1600</v>
       </c>
       <c r="B1600">
-        <v>3.470957539281777</v>
+        <v>3.470957539281776</v>
       </c>
     </row>
     <row r="1601" spans="1:2">
@@ -13175,7 +13175,7 @@
         <v>1604</v>
       </c>
       <c r="B1604">
-        <v>2.504057568530267</v>
+        <v>2.504057568530266</v>
       </c>
     </row>
     <row r="1605" spans="1:2">
@@ -13247,7 +13247,7 @@
         <v>1613</v>
       </c>
       <c r="B1613">
-        <v>0.6533725735916033</v>
+        <v>0.6533725735916032</v>
       </c>
     </row>
     <row r="1614" spans="1:2">
@@ -13287,7 +13287,7 @@
         <v>1618</v>
       </c>
       <c r="B1618">
-        <v>4.523551481737865</v>
+        <v>4.523551481737864</v>
       </c>
     </row>
     <row r="1619" spans="1:2">
@@ -13295,7 +13295,7 @@
         <v>1619</v>
       </c>
       <c r="B1619">
-        <v>12.88935220163757</v>
+        <v>12.88935220163756</v>
       </c>
     </row>
     <row r="1620" spans="1:2">
@@ -13431,7 +13431,7 @@
         <v>1636</v>
       </c>
       <c r="B1636">
-        <v>0.793516213569072</v>
+        <v>0.7935162135690719</v>
       </c>
     </row>
     <row r="1637" spans="1:2">
@@ -13503,7 +13503,7 @@
         <v>1645</v>
       </c>
       <c r="B1645">
-        <v>9.617917425476431</v>
+        <v>9.617917425476429</v>
       </c>
     </row>
     <row r="1646" spans="1:2">
@@ -13511,7 +13511,7 @@
         <v>1646</v>
       </c>
       <c r="B1646">
-        <v>22.53177036594609</v>
+        <v>22.53177036594608</v>
       </c>
     </row>
     <row r="1647" spans="1:2">
@@ -13575,7 +13575,7 @@
         <v>1654</v>
       </c>
       <c r="B1654">
-        <v>2.927946726718877</v>
+        <v>2.927946726718876</v>
       </c>
     </row>
     <row r="1655" spans="1:2">
@@ -13591,7 +13591,7 @@
         <v>1656</v>
       </c>
       <c r="B1656">
-        <v>1.832397362126196</v>
+        <v>1.832397362126195</v>
       </c>
     </row>
     <row r="1657" spans="1:2">
@@ -13991,7 +13991,7 @@
         <v>1706</v>
       </c>
       <c r="B1706">
-        <v>1.487646176507309</v>
+        <v>1.487646176507308</v>
       </c>
     </row>
     <row r="1707" spans="1:2">
@@ -14031,7 +14031,7 @@
         <v>1711</v>
       </c>
       <c r="B1711">
-        <v>1.592137724631625</v>
+        <v>1.592137724631624</v>
       </c>
     </row>
     <row r="1712" spans="1:2">
@@ -14135,7 +14135,7 @@
         <v>1724</v>
       </c>
       <c r="B1724">
-        <v>10.28570909417018</v>
+        <v>10.28570909417017</v>
       </c>
     </row>
     <row r="1725" spans="1:2">
@@ -14351,7 +14351,7 @@
         <v>1751</v>
       </c>
       <c r="B1751">
-        <v>2.639453457681422</v>
+        <v>2.639453457681421</v>
       </c>
     </row>
     <row r="1752" spans="1:2">
@@ -14367,7 +14367,7 @@
         <v>1753</v>
       </c>
       <c r="B1753">
-        <v>1.636625908300417</v>
+        <v>1.636625908300416</v>
       </c>
     </row>
     <row r="1754" spans="1:2">
@@ -14479,7 +14479,7 @@
         <v>1767</v>
       </c>
       <c r="B1767">
-        <v>32.86088328094201</v>
+        <v>32.860883280942</v>
       </c>
     </row>
     <row r="1768" spans="1:2">
@@ -14527,7 +14527,7 @@
         <v>1773</v>
       </c>
       <c r="B1773">
-        <v>7.707387324443122</v>
+        <v>7.707387324443121</v>
       </c>
     </row>
     <row r="1774" spans="1:2">
@@ -14543,7 +14543,7 @@
         <v>1775</v>
       </c>
       <c r="B1775">
-        <v>2.914954887575019</v>
+        <v>2.914954887575018</v>
       </c>
     </row>
     <row r="1776" spans="1:2">
@@ -14551,7 +14551,7 @@
         <v>1776</v>
       </c>
       <c r="B1776">
-        <v>2.109378800765033</v>
+        <v>2.109378800765032</v>
       </c>
     </row>
     <row r="1777" spans="1:2">
@@ -14767,7 +14767,7 @@
         <v>1803</v>
       </c>
       <c r="B1803">
-        <v>1.361317905292336</v>
+        <v>1.361317905292335</v>
       </c>
     </row>
     <row r="1804" spans="1:2">
@@ -14887,7 +14887,7 @@
         <v>1818</v>
       </c>
       <c r="B1818">
-        <v>11.48952769257552</v>
+        <v>11.48952769257551</v>
       </c>
     </row>
     <row r="1819" spans="1:2">
@@ -14895,7 +14895,7 @@
         <v>1819</v>
       </c>
       <c r="B1819">
-        <v>5.534265572769247</v>
+        <v>5.534265572769246</v>
       </c>
     </row>
     <row r="1820" spans="1:2">
@@ -15063,7 +15063,7 @@
         <v>1840</v>
       </c>
       <c r="B1840">
-        <v>49.11255158782959</v>
+        <v>49.11255158782958</v>
       </c>
     </row>
     <row r="1841" spans="1:2">
@@ -15103,7 +15103,7 @@
         <v>1845</v>
       </c>
       <c r="B1845">
-        <v>9.319571108119185</v>
+        <v>9.319571108119179</v>
       </c>
     </row>
     <row r="1846" spans="1:2">
@@ -15223,7 +15223,7 @@
         <v>1860</v>
       </c>
       <c r="B1860">
-        <v>38.21617037040077</v>
+        <v>38.21617037040076</v>
       </c>
     </row>
     <row r="1861" spans="1:2">
@@ -15263,7 +15263,7 @@
         <v>1865</v>
       </c>
       <c r="B1865">
-        <v>52.07784435700508</v>
+        <v>52.07784435700507</v>
       </c>
     </row>
     <row r="1866" spans="1:2">
@@ -15279,7 +15279,7 @@
         <v>1867</v>
       </c>
       <c r="B1867">
-        <v>30.23643212972966</v>
+        <v>30.23643212972965</v>
       </c>
     </row>
     <row r="1868" spans="1:2">
@@ -15495,7 +15495,7 @@
         <v>1894</v>
       </c>
       <c r="B1894">
-        <v>5.220708868505473</v>
+        <v>5.220708868505472</v>
       </c>
     </row>
     <row r="1895" spans="1:2">
@@ -16055,7 +16055,7 @@
         <v>1964</v>
       </c>
       <c r="B1964">
-        <v>4.304158502195982</v>
+        <v>4.304158502195981</v>
       </c>
     </row>
     <row r="1965" spans="1:2">
@@ -16239,7 +16239,7 @@
         <v>1987</v>
       </c>
       <c r="B1987">
-        <v>3.834512162741176</v>
+        <v>3.834512162741175</v>
       </c>
     </row>
     <row r="1988" spans="1:2">
@@ -16247,7 +16247,7 @@
         <v>1988</v>
       </c>
       <c r="B1988">
-        <v>3.817484735394952</v>
+        <v>3.817484735394951</v>
       </c>
     </row>
     <row r="1989" spans="1:2">
@@ -16263,7 +16263,7 @@
         <v>1990</v>
       </c>
       <c r="B1990">
-        <v>3.510727279228122</v>
+        <v>3.510727279228121</v>
       </c>
     </row>
     <row r="1991" spans="1:2">
@@ -16391,7 +16391,7 @@
         <v>2006</v>
       </c>
       <c r="B2006">
-        <v>0.9710381338174088</v>
+        <v>0.9710381338174086</v>
       </c>
     </row>
     <row r="2007" spans="1:2">
@@ -16431,7 +16431,7 @@
         <v>2011</v>
       </c>
       <c r="B2011">
-        <v>2.821113540995657</v>
+        <v>2.821113540995656</v>
       </c>
     </row>
     <row r="2012" spans="1:2">
@@ -16439,7 +16439,7 @@
         <v>2012</v>
       </c>
       <c r="B2012">
-        <v>3.394876297645292</v>
+        <v>3.394876297645291</v>
       </c>
     </row>
     <row r="2013" spans="1:2">
@@ -16471,7 +16471,7 @@
         <v>2016</v>
       </c>
       <c r="B2016">
-        <v>2.078128635912574</v>
+        <v>2.078128635912573</v>
       </c>
     </row>
     <row r="2017" spans="1:2">
@@ -16559,7 +16559,7 @@
         <v>2027</v>
       </c>
       <c r="B2027">
-        <v>0.9428593534501204</v>
+        <v>0.9428593534501202</v>
       </c>
     </row>
     <row r="2028" spans="1:2">
@@ -16583,7 +16583,7 @@
         <v>2030</v>
       </c>
       <c r="B2030">
-        <v>0.9835112372228356</v>
+        <v>0.9835112372228354</v>
       </c>
     </row>
     <row r="2031" spans="1:2">
@@ -16679,7 +16679,7 @@
         <v>2042</v>
       </c>
       <c r="B2042">
-        <v>1.649720322307806</v>
+        <v>1.649720322307805</v>
       </c>
     </row>
     <row r="2043" spans="1:2">
@@ -16775,7 +16775,7 @@
         <v>2054</v>
       </c>
       <c r="B2054">
-        <v>0.9803695156883858</v>
+        <v>0.9803695156883856</v>
       </c>
     </row>
     <row r="2055" spans="1:2">
@@ -16815,7 +16815,7 @@
         <v>2059</v>
       </c>
       <c r="B2059">
-        <v>3.960562016469421</v>
+        <v>3.96056201646942</v>
       </c>
     </row>
     <row r="2060" spans="1:2">
@@ -16823,7 +16823,7 @@
         <v>2060</v>
       </c>
       <c r="B2060">
-        <v>4.77993002635881</v>
+        <v>4.779930026358809</v>
       </c>
     </row>
     <row r="2061" spans="1:2">
@@ -16959,7 +16959,7 @@
         <v>2077</v>
       </c>
       <c r="B2077">
-        <v>0.9461095112688748</v>
+        <v>0.9461095112688744</v>
       </c>
     </row>
     <row r="2078" spans="1:2">
@@ -17023,7 +17023,7 @@
         <v>2085</v>
       </c>
       <c r="B2085">
-        <v>7.47319425744884</v>
+        <v>7.473194257448839</v>
       </c>
     </row>
     <row r="2086" spans="1:2">
@@ -17031,7 +17031,7 @@
         <v>2086</v>
       </c>
       <c r="B2086">
-        <v>5.935567746008227</v>
+        <v>5.935567746008226</v>
       </c>
     </row>
     <row r="2087" spans="1:2">
@@ -17087,7 +17087,7 @@
         <v>2093</v>
       </c>
       <c r="B2093">
-        <v>2.276710640999115</v>
+        <v>2.276710640999114</v>
       </c>
     </row>
     <row r="2094" spans="1:2">
@@ -17127,7 +17127,7 @@
         <v>2098</v>
       </c>
       <c r="B2098">
-        <v>1.549853435173566</v>
+        <v>1.549853435173565</v>
       </c>
     </row>
     <row r="2099" spans="1:2">
@@ -17159,7 +17159,7 @@
         <v>2102</v>
       </c>
       <c r="B2102">
-        <v>3.363517696508528</v>
+        <v>3.363517696508527</v>
       </c>
     </row>
     <row r="2103" spans="1:2">
@@ -17231,7 +17231,7 @@
         <v>2111</v>
       </c>
       <c r="B2111">
-        <v>4.850237768533667</v>
+        <v>4.850237768533666</v>
       </c>
     </row>
     <row r="2112" spans="1:2">
@@ -17247,7 +17247,7 @@
         <v>2113</v>
       </c>
       <c r="B2113">
-        <v>2.770778590105571</v>
+        <v>2.77077859010557</v>
       </c>
     </row>
     <row r="2114" spans="1:2">
@@ -17359,7 +17359,7 @@
         <v>2127</v>
       </c>
       <c r="B2127">
-        <v>57.95567710839702</v>
+        <v>57.95567710839701</v>
       </c>
     </row>
     <row r="2128" spans="1:2">
@@ -17367,7 +17367,7 @@
         <v>2128</v>
       </c>
       <c r="B2128">
-        <v>63.7892561329511</v>
+        <v>63.78925613295109</v>
       </c>
     </row>
     <row r="2129" spans="1:2">
@@ -17383,7 +17383,7 @@
         <v>2130</v>
       </c>
       <c r="B2130">
-        <v>52.9928121397058</v>
+        <v>52.99281213970579</v>
       </c>
     </row>
     <row r="2131" spans="1:2">
@@ -17423,7 +17423,7 @@
         <v>2135</v>
       </c>
       <c r="B2135">
-        <v>7.750205003191544</v>
+        <v>7.750205003191543</v>
       </c>
     </row>
     <row r="2136" spans="1:2">
@@ -17647,7 +17647,7 @@
         <v>2163</v>
       </c>
       <c r="B2163">
-        <v>1.68034331513753</v>
+        <v>1.680343315137529</v>
       </c>
     </row>
     <row r="2164" spans="1:2">
@@ -17663,7 +17663,7 @@
         <v>2165</v>
       </c>
       <c r="B2165">
-        <v>1.355008085829957</v>
+        <v>1.355008085829956</v>
       </c>
     </row>
     <row r="2166" spans="1:2">
@@ -17687,7 +17687,7 @@
         <v>2168</v>
       </c>
       <c r="B2168">
-        <v>8.179436846414951</v>
+        <v>8.17943684641495</v>
       </c>
     </row>
     <row r="2169" spans="1:2">
@@ -17807,7 +17807,7 @@
         <v>2183</v>
       </c>
       <c r="B2183">
-        <v>2.903281868105138</v>
+        <v>2.903281868105137</v>
       </c>
     </row>
     <row r="2184" spans="1:2">
@@ -17839,7 +17839,7 @@
         <v>2187</v>
       </c>
       <c r="B2187">
-        <v>1.67483944103147</v>
+        <v>1.674839441031469</v>
       </c>
     </row>
     <row r="2188" spans="1:2">
@@ -17911,7 +17911,7 @@
         <v>2196</v>
       </c>
       <c r="B2196">
-        <v>38.993101693892</v>
+        <v>38.99310169389199</v>
       </c>
     </row>
     <row r="2197" spans="1:2">
@@ -17975,7 +17975,7 @@
         <v>2204</v>
       </c>
       <c r="B2204">
-        <v>39.19444149745234</v>
+        <v>39.19444149745233</v>
       </c>
     </row>
     <row r="2205" spans="1:2">
@@ -18071,7 +18071,7 @@
         <v>2216</v>
       </c>
       <c r="B2216">
-        <v>6.269961801120822</v>
+        <v>6.269961801120821</v>
       </c>
     </row>
     <row r="2217" spans="1:2">
@@ -18127,7 +18127,7 @@
         <v>2223</v>
       </c>
       <c r="B2223">
-        <v>66.29794422389222</v>
+        <v>66.2979442238922</v>
       </c>
     </row>
     <row r="2224" spans="1:2">
@@ -18143,7 +18143,7 @@
         <v>2225</v>
       </c>
       <c r="B2225">
-        <v>61.47633949583576</v>
+        <v>61.47633949583575</v>
       </c>
     </row>
     <row r="2226" spans="1:2">
@@ -18159,7 +18159,7 @@
         <v>2227</v>
       </c>
       <c r="B2227">
-        <v>45.25046144035038</v>
+        <v>45.25046144035037</v>
       </c>
     </row>
     <row r="2228" spans="1:2">
@@ -18215,7 +18215,7 @@
         <v>2234</v>
       </c>
       <c r="B2234">
-        <v>3.852360188995652</v>
+        <v>3.852360188995651</v>
       </c>
     </row>
     <row r="2235" spans="1:2">
@@ -18303,7 +18303,7 @@
         <v>2245</v>
       </c>
       <c r="B2245">
-        <v>62.68613674342979</v>
+        <v>62.68613674342978</v>
       </c>
     </row>
     <row r="2246" spans="1:2">
@@ -18335,7 +18335,7 @@
         <v>2249</v>
       </c>
       <c r="B2249">
-        <v>84.63862289435787</v>
+        <v>84.63862289435785</v>
       </c>
     </row>
     <row r="2250" spans="1:2">
@@ -18343,7 +18343,7 @@
         <v>2250</v>
       </c>
       <c r="B2250">
-        <v>83.89422245615805</v>
+        <v>83.89422245615803</v>
       </c>
     </row>
     <row r="2251" spans="1:2">
@@ -18423,7 +18423,7 @@
         <v>2260</v>
       </c>
       <c r="B2260">
-        <v>3.786419205296849</v>
+        <v>3.786419205296848</v>
       </c>
     </row>
     <row r="2261" spans="1:2">
@@ -18543,7 +18543,7 @@
         <v>2275</v>
       </c>
       <c r="B2275">
-        <v>27.68999648900896</v>
+        <v>27.68999648900895</v>
       </c>
     </row>
     <row r="2276" spans="1:2">
@@ -18591,7 +18591,7 @@
         <v>2281</v>
       </c>
       <c r="B2281">
-        <v>3.64281439635279</v>
+        <v>3.642814396352789</v>
       </c>
     </row>
     <row r="2282" spans="1:2">
@@ -18599,7 +18599,7 @@
         <v>2282</v>
       </c>
       <c r="B2282">
-        <v>2.962830972450737</v>
+        <v>2.962830972450736</v>
       </c>
     </row>
     <row r="2283" spans="1:2">
@@ -18623,7 +18623,7 @@
         <v>2285</v>
       </c>
       <c r="B2285">
-        <v>2.878921803371607</v>
+        <v>2.878921803371606</v>
       </c>
     </row>
     <row r="2286" spans="1:2">
@@ -18647,7 +18647,7 @@
         <v>2288</v>
       </c>
       <c r="B2288">
-        <v>3.286527934652193</v>
+        <v>3.286527934652192</v>
       </c>
     </row>
     <row r="2289" spans="1:2">
@@ -18727,7 +18727,7 @@
         <v>2298</v>
       </c>
       <c r="B2298">
-        <v>30.99929604336514</v>
+        <v>30.99929604336513</v>
       </c>
     </row>
     <row r="2299" spans="1:2">
@@ -18775,7 +18775,7 @@
         <v>2304</v>
       </c>
       <c r="B2304">
-        <v>13.37716894548938</v>
+        <v>13.37716894548937</v>
       </c>
     </row>
     <row r="2305" spans="1:2">
@@ -18799,7 +18799,7 @@
         <v>2307</v>
       </c>
       <c r="B2307">
-        <v>6.092858972457771</v>
+        <v>6.09285897245777</v>
       </c>
     </row>
     <row r="2308" spans="1:2">
@@ -18871,7 +18871,7 @@
         <v>2316</v>
       </c>
       <c r="B2316">
-        <v>62.32712472106965</v>
+        <v>62.32712472106964</v>
       </c>
     </row>
     <row r="2317" spans="1:2">
@@ -18879,7 +18879,7 @@
         <v>2317</v>
       </c>
       <c r="B2317">
-        <v>73.7524991632822</v>
+        <v>73.75249916328218</v>
       </c>
     </row>
     <row r="2318" spans="1:2">
@@ -19015,7 +19015,7 @@
         <v>2334</v>
       </c>
       <c r="B2334">
-        <v>2.3315119945184</v>
+        <v>2.331511994518399</v>
       </c>
     </row>
     <row r="2335" spans="1:2">
@@ -19023,7 +19023,7 @@
         <v>2335</v>
       </c>
       <c r="B2335">
-        <v>7.8756394077386</v>
+        <v>7.875639407738599</v>
       </c>
     </row>
     <row r="2336" spans="1:2">
@@ -19079,7 +19079,7 @@
         <v>2342</v>
       </c>
       <c r="B2342">
-        <v>49.81592208061682</v>
+        <v>49.81592208061681</v>
       </c>
     </row>
     <row r="2343" spans="1:2">
@@ -19191,7 +19191,7 @@
         <v>2356</v>
       </c>
       <c r="B2356">
-        <v>1.570347892907154</v>
+        <v>1.570347892907153</v>
       </c>
     </row>
     <row r="2357" spans="1:2">
@@ -19231,7 +19231,7 @@
         <v>2361</v>
       </c>
       <c r="B2361">
-        <v>7.880680229603575</v>
+        <v>7.880680229603574</v>
       </c>
     </row>
     <row r="2362" spans="1:2">
@@ -19247,7 +19247,7 @@
         <v>2363</v>
       </c>
       <c r="B2363">
-        <v>11.17245413584781</v>
+        <v>11.1724541358478</v>
       </c>
     </row>
     <row r="2364" spans="1:2">
@@ -19295,7 +19295,7 @@
         <v>2369</v>
       </c>
       <c r="B2369">
-        <v>17.37289948659816</v>
+        <v>17.37289948659815</v>
       </c>
     </row>
     <row r="2370" spans="1:2">
@@ -19479,7 +19479,7 @@
         <v>2392</v>
       </c>
       <c r="B2392">
-        <v>35.87248127422599</v>
+        <v>35.87248127422598</v>
       </c>
     </row>
     <row r="2393" spans="1:2">
@@ -19551,7 +19551,7 @@
         <v>2401</v>
       </c>
       <c r="B2401">
-        <v>1.711854313214398</v>
+        <v>1.711854313214397</v>
       </c>
     </row>
     <row r="2402" spans="1:2">
@@ -19711,7 +19711,7 @@
         <v>2421</v>
       </c>
       <c r="B2421">
-        <v>14.35526422991775</v>
+        <v>14.35526422991774</v>
       </c>
     </row>
     <row r="2422" spans="1:2">
@@ -19799,7 +19799,7 @@
         <v>2432</v>
       </c>
       <c r="B2432">
-        <v>5.423601948570722</v>
+        <v>5.423601948570721</v>
       </c>
     </row>
     <row r="2433" spans="1:2">
@@ -19879,7 +19879,7 @@
         <v>2442</v>
       </c>
       <c r="B2442">
-        <v>37.75487655554781</v>
+        <v>37.7548765555478</v>
       </c>
     </row>
     <row r="2443" spans="1:2">
@@ -19895,7 +19895,7 @@
         <v>2444</v>
       </c>
       <c r="B2444">
-        <v>39.00335918024514</v>
+        <v>39.00335918024513</v>
       </c>
     </row>
     <row r="2445" spans="1:2">
@@ -20007,7 +20007,7 @@
         <v>2458</v>
       </c>
       <c r="B2458">
-        <v>44.59310310063298</v>
+        <v>44.59310310063297</v>
       </c>
     </row>
     <row r="2459" spans="1:2">
@@ -20023,7 +20023,7 @@
         <v>2460</v>
       </c>
       <c r="B2460">
-        <v>48.41445637373826</v>
+        <v>48.41445637373825</v>
       </c>
     </row>
     <row r="2461" spans="1:2">
@@ -20047,7 +20047,7 @@
         <v>2463</v>
       </c>
       <c r="B2463">
-        <v>60.34801599698958</v>
+        <v>60.34801599698957</v>
       </c>
     </row>
     <row r="2464" spans="1:2">
@@ -20071,7 +20071,7 @@
         <v>2466</v>
       </c>
       <c r="B2466">
-        <v>43.10254379800138</v>
+        <v>43.10254379800137</v>
       </c>
     </row>
     <row r="2467" spans="1:2">
@@ -20127,7 +20127,7 @@
         <v>2473</v>
       </c>
       <c r="B2473">
-        <v>2.722272402496732</v>
+        <v>2.722272402496731</v>
       </c>
     </row>
     <row r="2474" spans="1:2">
@@ -20143,7 +20143,7 @@
         <v>2475</v>
       </c>
       <c r="B2475">
-        <v>1.91001136529488</v>
+        <v>1.910011365294879</v>
       </c>
     </row>
     <row r="2476" spans="1:2">
@@ -20167,7 +20167,7 @@
         <v>2478</v>
       </c>
       <c r="B2478">
-        <v>1.796252910928092</v>
+        <v>1.796252910928091</v>
       </c>
     </row>
     <row r="2479" spans="1:2">
@@ -20223,7 +20223,7 @@
         <v>2485</v>
       </c>
       <c r="B2485">
-        <v>34.68495742557022</v>
+        <v>34.68495742557021</v>
       </c>
     </row>
     <row r="2486" spans="1:2">
@@ -20391,7 +20391,7 @@
         <v>2506</v>
       </c>
       <c r="B2506">
-        <v>30.327870293792</v>
+        <v>30.32787029379199</v>
       </c>
     </row>
     <row r="2507" spans="1:2">
@@ -20487,7 +20487,7 @@
         <v>2518</v>
       </c>
       <c r="B2518">
-        <v>8.84573385281152</v>
+        <v>8.845733852811518</v>
       </c>
     </row>
     <row r="2519" spans="1:2">
@@ -20607,7 +20607,7 @@
         <v>2533</v>
       </c>
       <c r="B2533">
-        <v>49.77752977455218</v>
+        <v>49.77752977455217</v>
       </c>
     </row>
     <row r="2534" spans="1:2">
@@ -20623,7 +20623,7 @@
         <v>2535</v>
       </c>
       <c r="B2535">
-        <v>71.12042816506465</v>
+        <v>71.12042816506464</v>
       </c>
     </row>
     <row r="2536" spans="1:2">
@@ -20935,7 +20935,7 @@
         <v>2574</v>
       </c>
       <c r="B2574">
-        <v>1.897796164403475</v>
+        <v>1.897796164403474</v>
       </c>
     </row>
     <row r="2575" spans="1:2">
@@ -20991,7 +20991,7 @@
         <v>2581</v>
       </c>
       <c r="B2581">
-        <v>3.372837355537959</v>
+        <v>3.372837355537958</v>
       </c>
     </row>
     <row r="2582" spans="1:2">
@@ -21215,7 +21215,7 @@
         <v>2609</v>
       </c>
       <c r="B2609">
-        <v>37.64057885046989</v>
+        <v>37.64057885046988</v>
       </c>
     </row>
     <row r="2610" spans="1:2">
@@ -21447,7 +21447,7 @@
         <v>2638</v>
       </c>
       <c r="B2638">
-        <v>15.58929845240908</v>
+        <v>15.58929845240907</v>
       </c>
     </row>
     <row r="2639" spans="1:2">
@@ -21655,7 +21655,7 @@
         <v>2664</v>
       </c>
       <c r="B2664">
-        <v>2.764559622665177</v>
+        <v>2.764559622665176</v>
       </c>
     </row>
     <row r="2665" spans="1:2">
@@ -21703,7 +21703,7 @@
         <v>2670</v>
       </c>
       <c r="B2670">
-        <v>1.98619225108451</v>
+        <v>1.986192251084509</v>
       </c>
     </row>
     <row r="2671" spans="1:2">
@@ -21799,7 +21799,7 @@
         <v>2682</v>
       </c>
       <c r="B2682">
-        <v>35.41880730637823</v>
+        <v>35.41880730637822</v>
       </c>
     </row>
     <row r="2683" spans="1:2">
@@ -21911,7 +21911,7 @@
         <v>2696</v>
       </c>
       <c r="B2696">
-        <v>2.34289194294962</v>
+        <v>2.342891942949619</v>
       </c>
     </row>
     <row r="2697" spans="1:2">
@@ -21935,7 +21935,7 @@
         <v>2699</v>
       </c>
       <c r="B2699">
-        <v>1.543523100738481</v>
+        <v>1.54352310073848</v>
       </c>
     </row>
     <row r="2700" spans="1:2">
@@ -22087,7 +22087,7 @@
         <v>2718</v>
       </c>
       <c r="B2718">
-        <v>2.26634764907205</v>
+        <v>2.266347649072049</v>
       </c>
     </row>
     <row r="2719" spans="1:2">
@@ -22135,7 +22135,7 @@
         <v>2724</v>
       </c>
       <c r="B2724">
-        <v>18.84180083947269</v>
+        <v>18.84180083947268</v>
       </c>
     </row>
     <row r="2725" spans="1:2">
@@ -22223,7 +22223,7 @@
         <v>2735</v>
       </c>
       <c r="B2735">
-        <v>6.326671047101792</v>
+        <v>6.326671047101791</v>
       </c>
     </row>
     <row r="2736" spans="1:2">
@@ -22239,7 +22239,7 @@
         <v>2737</v>
       </c>
       <c r="B2737">
-        <v>3.453871497727821</v>
+        <v>3.45387149772782</v>
       </c>
     </row>
     <row r="2738" spans="1:2">
@@ -22327,7 +22327,7 @@
         <v>2748</v>
       </c>
       <c r="B2748">
-        <v>40.14487087583108</v>
+        <v>40.14487087583107</v>
       </c>
     </row>
     <row r="2749" spans="1:2">
@@ -22335,7 +22335,7 @@
         <v>2749</v>
       </c>
       <c r="B2749">
-        <v>46.94470511485162</v>
+        <v>46.94470511485161</v>
       </c>
     </row>
     <row r="2750" spans="1:2">
@@ -22399,7 +22399,7 @@
         <v>2757</v>
       </c>
       <c r="B2757">
-        <v>26.78710323310109</v>
+        <v>26.78710323310108</v>
       </c>
     </row>
     <row r="2758" spans="1:2">
@@ -22639,7 +22639,7 @@
         <v>2787</v>
       </c>
       <c r="B2787">
-        <v>2.426745428531404</v>
+        <v>2.426745428531403</v>
       </c>
     </row>
     <row r="2788" spans="1:2">
@@ -22647,7 +22647,7 @@
         <v>2788</v>
       </c>
       <c r="B2788">
-        <v>2.175639231895977</v>
+        <v>2.175639231895976</v>
       </c>
     </row>
     <row r="2789" spans="1:2">
@@ -22799,7 +22799,7 @@
         <v>2807</v>
       </c>
       <c r="B2807">
-        <v>5.252682918823426</v>
+        <v>5.252682918823425</v>
       </c>
     </row>
     <row r="2808" spans="1:2">
@@ -22807,7 +22807,7 @@
         <v>2808</v>
       </c>
       <c r="B2808">
-        <v>3.812912827191835</v>
+        <v>3.812912827191834</v>
       </c>
     </row>
     <row r="2809" spans="1:2">
@@ -22991,7 +22991,7 @@
         <v>2831</v>
       </c>
       <c r="B2831">
-        <v>4.350551647616073</v>
+        <v>4.350551647616072</v>
       </c>
     </row>
     <row r="2832" spans="1:2">
@@ -23031,7 +23031,7 @@
         <v>2836</v>
       </c>
       <c r="B2836">
-        <v>2.158708517992511</v>
+        <v>2.15870851799251</v>
       </c>
     </row>
     <row r="2837" spans="1:2">
@@ -23247,7 +23247,7 @@
         <v>2863</v>
       </c>
       <c r="B2863">
-        <v>4.459896452140621</v>
+        <v>4.45989645214062</v>
       </c>
     </row>
     <row r="2864" spans="1:2">
@@ -23271,7 +23271,7 @@
         <v>2866</v>
       </c>
       <c r="B2866">
-        <v>41.52054633130744</v>
+        <v>41.52054633130743</v>
       </c>
     </row>
     <row r="2867" spans="1:2">
@@ -23295,7 +23295,7 @@
         <v>2869</v>
       </c>
       <c r="B2869">
-        <v>60.06256480533343</v>
+        <v>60.06256480533342</v>
       </c>
     </row>
     <row r="2870" spans="1:2">
@@ -23319,7 +23319,7 @@
         <v>2872</v>
       </c>
       <c r="B2872">
-        <v>80.78385952284519</v>
+        <v>80.78385952284518</v>
       </c>
     </row>
     <row r="2873" spans="1:2">
@@ -23399,7 +23399,7 @@
         <v>2882</v>
       </c>
       <c r="B2882">
-        <v>3.658464389817306</v>
+        <v>3.658464389817305</v>
       </c>
     </row>
     <row r="2883" spans="1:2">
@@ -23439,7 +23439,7 @@
         <v>2887</v>
       </c>
       <c r="B2887">
-        <v>5.533884580418987</v>
+        <v>5.533884580418986</v>
       </c>
     </row>
     <row r="2888" spans="1:2">
@@ -23447,7 +23447,7 @@
         <v>2888</v>
       </c>
       <c r="B2888">
-        <v>14.2884147259991</v>
+        <v>14.28841472599909</v>
       </c>
     </row>
     <row r="2889" spans="1:2">
@@ -23591,7 +23591,7 @@
         <v>2906</v>
       </c>
       <c r="B2906">
-        <v>9.527886002399669</v>
+        <v>9.527886002399663</v>
       </c>
     </row>
     <row r="2907" spans="1:2">
@@ -23599,7 +23599,7 @@
         <v>2907</v>
       </c>
       <c r="B2907">
-        <v>8.421513524349223</v>
+        <v>8.421513524349221</v>
       </c>
     </row>
     <row r="2908" spans="1:2">
@@ -23671,7 +23671,7 @@
         <v>2916</v>
       </c>
       <c r="B2916">
-        <v>88.23841446223517</v>
+        <v>88.23841446223516</v>
       </c>
     </row>
     <row r="2917" spans="1:2">
@@ -23711,7 +23711,7 @@
         <v>2921</v>
       </c>
       <c r="B2921">
-        <v>72.89145645169516</v>
+        <v>72.89145645169515</v>
       </c>
     </row>
     <row r="2922" spans="1:2">
@@ -23727,7 +23727,7 @@
         <v>2923</v>
       </c>
       <c r="B2923">
-        <v>78.06298799991326</v>
+        <v>78.06298799991325</v>
       </c>
     </row>
     <row r="2924" spans="1:2">
@@ -23751,7 +23751,7 @@
         <v>2926</v>
       </c>
       <c r="B2926">
-        <v>61.59327484026164</v>
+        <v>61.59327484026163</v>
       </c>
     </row>
     <row r="2927" spans="1:2">
@@ -24063,7 +24063,7 @@
         <v>2965</v>
       </c>
       <c r="B2965">
-        <v>45.25046144035038</v>
+        <v>45.25046144035037</v>
       </c>
     </row>
     <row r="2966" spans="1:2">
@@ -24079,7 +24079,7 @@
         <v>2967</v>
       </c>
       <c r="B2967">
-        <v>27.4678193345998</v>
+        <v>27.46781933459979</v>
       </c>
     </row>
     <row r="2968" spans="1:2">
@@ -24199,7 +24199,7 @@
         <v>2982</v>
       </c>
       <c r="B2982">
-        <v>2.624149288042526</v>
+        <v>2.624149288042525</v>
       </c>
     </row>
     <row r="2983" spans="1:2">
@@ -24239,7 +24239,7 @@
         <v>2987</v>
       </c>
       <c r="B2987">
-        <v>43.23266733916702</v>
+        <v>43.23266733916701</v>
       </c>
     </row>
     <row r="2988" spans="1:2">
@@ -24271,7 +24271,7 @@
         <v>2991</v>
       </c>
       <c r="B2991">
-        <v>76.73566926581603</v>
+        <v>76.73566926581601</v>
       </c>
     </row>
     <row r="2992" spans="1:2">
@@ -24399,7 +24399,7 @@
         <v>3007</v>
       </c>
       <c r="B3007">
-        <v>17.43286182110827</v>
+        <v>17.43286182110826</v>
       </c>
     </row>
     <row r="3008" spans="1:2">
@@ -24495,7 +24495,7 @@
         <v>3019</v>
       </c>
       <c r="B3019">
-        <v>44.188078925203</v>
+        <v>44.18807892520299</v>
       </c>
     </row>
     <row r="3020" spans="1:2">
@@ -24519,7 +24519,7 @@
         <v>3022</v>
       </c>
       <c r="B3022">
-        <v>31.40959549749103</v>
+        <v>31.40959549749102</v>
       </c>
     </row>
     <row r="3023" spans="1:2">
@@ -24535,7 +24535,7 @@
         <v>3024</v>
       </c>
       <c r="B3024">
-        <v>17.73469568382559</v>
+        <v>17.73469568382558</v>
       </c>
     </row>
     <row r="3025" spans="1:2">
@@ -24559,7 +24559,7 @@
         <v>3027</v>
       </c>
       <c r="B3027">
-        <v>6.042245604080956</v>
+        <v>6.042245604080955</v>
       </c>
     </row>
     <row r="3028" spans="1:2">
@@ -24623,7 +24623,7 @@
         <v>3035</v>
       </c>
       <c r="B3035">
-        <v>48.979790407316</v>
+        <v>48.97979040731599</v>
       </c>
     </row>
     <row r="3036" spans="1:2">
@@ -24671,7 +24671,7 @@
         <v>3041</v>
       </c>
       <c r="B3041">
-        <v>57.1529555335036</v>
+        <v>57.15295553350359</v>
       </c>
     </row>
     <row r="3042" spans="1:2">
@@ -24695,7 +24695,7 @@
         <v>3044</v>
       </c>
       <c r="B3044">
-        <v>68.69497224910336</v>
+        <v>68.69497224910334</v>
       </c>
     </row>
     <row r="3045" spans="1:2">
@@ -24727,7 +24727,7 @@
         <v>3048</v>
       </c>
       <c r="B3048">
-        <v>30.052676588489</v>
+        <v>30.05267658848899</v>
       </c>
     </row>
     <row r="3049" spans="1:2">
@@ -24767,7 +24767,7 @@
         <v>3053</v>
       </c>
       <c r="B3053">
-        <v>7.470146318646763</v>
+        <v>7.470146318646762</v>
       </c>
     </row>
     <row r="3054" spans="1:2">
@@ -24831,7 +24831,7 @@
         <v>3061</v>
       </c>
       <c r="B3061">
-        <v>82.63577541614623</v>
+        <v>82.63577541614622</v>
       </c>
     </row>
     <row r="3062" spans="1:2">
@@ -24847,7 +24847,7 @@
         <v>3063</v>
       </c>
       <c r="B3063">
-        <v>88.25892943494146</v>
+        <v>88.25892943494145</v>
       </c>
     </row>
     <row r="3064" spans="1:2">
@@ -24991,7 +24991,7 @@
         <v>3081</v>
       </c>
       <c r="B3081">
-        <v>7.935484513833247</v>
+        <v>7.935484513833246</v>
       </c>
     </row>
     <row r="3082" spans="1:2">
@@ -24999,7 +24999,7 @@
         <v>3082</v>
       </c>
       <c r="B3082">
-        <v>7.860956548701667</v>
+        <v>7.860956548701666</v>
       </c>
     </row>
     <row r="3083" spans="1:2">
@@ -25023,7 +25023,7 @@
         <v>3085</v>
       </c>
       <c r="B3085">
-        <v>15.21815328904835</v>
+        <v>15.21815328904834</v>
       </c>
     </row>
     <row r="3086" spans="1:2">
@@ -25071,7 +25071,7 @@
         <v>3091</v>
       </c>
       <c r="B3091">
-        <v>45.6604678234376</v>
+        <v>45.66046782343759</v>
       </c>
     </row>
     <row r="3092" spans="1:2">
@@ -25135,7 +25135,7 @@
         <v>3099</v>
       </c>
       <c r="B3099">
-        <v>7.692059709121134</v>
+        <v>7.692059709121133</v>
       </c>
     </row>
     <row r="3100" spans="1:2">
@@ -25167,7 +25167,7 @@
         <v>3103</v>
       </c>
       <c r="B3103">
-        <v>35.63011152525306</v>
+        <v>35.63011152525305</v>
       </c>
     </row>
     <row r="3104" spans="1:2">
@@ -25183,7 +25183,7 @@
         <v>3105</v>
       </c>
       <c r="B3105">
-        <v>57.82291592788343</v>
+        <v>57.82291592788342</v>
       </c>
     </row>
     <row r="3106" spans="1:2">
@@ -25199,7 +25199,7 @@
         <v>3107</v>
       </c>
       <c r="B3107">
-        <v>63.67730299618246</v>
+        <v>63.67730299618245</v>
       </c>
     </row>
     <row r="3108" spans="1:2">
@@ -25231,7 +25231,7 @@
         <v>3111</v>
       </c>
       <c r="B3111">
-        <v>77.5835237806633</v>
+        <v>77.58352378066328</v>
       </c>
     </row>
     <row r="3112" spans="1:2">
@@ -25239,7 +25239,7 @@
         <v>3112</v>
       </c>
       <c r="B3112">
-        <v>85.62685843672392</v>
+        <v>85.62685843672391</v>
       </c>
     </row>
     <row r="3113" spans="1:2">
@@ -25247,7 +25247,7 @@
         <v>3113</v>
       </c>
       <c r="B3113">
-        <v>74.14462821301107</v>
+        <v>74.14462821301106</v>
       </c>
     </row>
     <row r="3114" spans="1:2">
@@ -25351,7 +25351,7 @@
         <v>3126</v>
       </c>
       <c r="B3126">
-        <v>3.383680983968429</v>
+        <v>3.383680983968428</v>
       </c>
     </row>
     <row r="3127" spans="1:2">
@@ -25511,7 +25511,7 @@
         <v>3146</v>
       </c>
       <c r="B3146">
-        <v>7.815501230605292</v>
+        <v>7.815501230605291</v>
       </c>
     </row>
     <row r="3147" spans="1:2">
@@ -25591,7 +25591,7 @@
         <v>3156</v>
       </c>
       <c r="B3156">
-        <v>83.88162040149561</v>
+        <v>83.8816204014956</v>
       </c>
     </row>
     <row r="3157" spans="1:2">
@@ -25615,7 +25615,7 @@
         <v>3159</v>
       </c>
       <c r="B3159">
-        <v>123.6460850691443</v>
+        <v>123.6460850691442</v>
       </c>
     </row>
     <row r="3160" spans="1:2">
@@ -25703,7 +25703,7 @@
         <v>3170</v>
       </c>
       <c r="B3170">
-        <v>44.01458087031549</v>
+        <v>44.01458087031548</v>
       </c>
     </row>
     <row r="3171" spans="1:2">
@@ -25711,7 +25711,7 @@
         <v>3171</v>
       </c>
       <c r="B3171">
-        <v>40.22898226392689</v>
+        <v>40.22898226392688</v>
       </c>
     </row>
     <row r="3172" spans="1:2">
@@ -25743,7 +25743,7 @@
         <v>3175</v>
       </c>
       <c r="B3175">
-        <v>58.32230897776236</v>
+        <v>58.32230897776235</v>
       </c>
     </row>
     <row r="3176" spans="1:2">
@@ -25759,7 +25759,7 @@
         <v>3177</v>
       </c>
       <c r="B3177">
-        <v>90.13341179821944</v>
+        <v>90.1334117982194</v>
       </c>
     </row>
     <row r="3178" spans="1:2">
@@ -25815,7 +25815,7 @@
         <v>3184</v>
       </c>
       <c r="B3184">
-        <v>85.30623872042841</v>
+        <v>85.3062387204284</v>
       </c>
     </row>
     <row r="3185" spans="1:2">
@@ -25903,7 +25903,7 @@
         <v>3195</v>
       </c>
       <c r="B3195">
-        <v>3.579393823586475</v>
+        <v>3.579393823586474</v>
       </c>
     </row>
     <row r="3196" spans="1:2">
@@ -25919,7 +25919,7 @@
         <v>3197</v>
       </c>
       <c r="B3197">
-        <v>3.117806937694856</v>
+        <v>3.117806937694855</v>
       </c>
     </row>
     <row r="3198" spans="1:2">
@@ -25967,7 +25967,7 @@
         <v>3203</v>
       </c>
       <c r="B3203">
-        <v>33.81131265932075</v>
+        <v>33.81131265932074</v>
       </c>
     </row>
     <row r="3204" spans="1:2">
@@ -26159,7 +26159,7 @@
         <v>3227</v>
       </c>
       <c r="B3227">
-        <v>38.34629391156641</v>
+        <v>38.3462939115664</v>
       </c>
     </row>
     <row r="3228" spans="1:2">
@@ -26223,7 +26223,7 @@
         <v>3235</v>
       </c>
       <c r="B3235">
-        <v>72.312641150339</v>
+        <v>72.31264115033899</v>
       </c>
     </row>
     <row r="3236" spans="1:2">
@@ -26295,7 +26295,7 @@
         <v>3244</v>
       </c>
       <c r="B3244">
-        <v>2.682077709544328</v>
+        <v>2.682077709544327</v>
       </c>
     </row>
     <row r="3245" spans="1:2">
@@ -26311,7 +26311,7 @@
         <v>3246</v>
       </c>
       <c r="B3246">
-        <v>4.307968425698579</v>
+        <v>4.307968425698578</v>
       </c>
     </row>
     <row r="3247" spans="1:2">
@@ -26319,7 +26319,7 @@
         <v>3247</v>
       </c>
       <c r="B3247">
-        <v>17.54894725952203</v>
+        <v>17.54894725952202</v>
       </c>
     </row>
     <row r="3248" spans="1:2">
@@ -26351,7 +26351,7 @@
         <v>3251</v>
       </c>
       <c r="B3251">
-        <v>55.77434936764063</v>
+        <v>55.77434936764062</v>
       </c>
     </row>
     <row r="3252" spans="1:2">
@@ -26367,7 +26367,7 @@
         <v>3253</v>
       </c>
       <c r="B3253">
-        <v>72.50401653858486</v>
+        <v>72.50401653858485</v>
       </c>
     </row>
     <row r="3254" spans="1:2">
@@ -26423,7 +26423,7 @@
         <v>3260</v>
       </c>
       <c r="B3260">
-        <v>80.81961418956188</v>
+        <v>80.81961418956186</v>
       </c>
     </row>
     <row r="3261" spans="1:2">
@@ -26527,7 +26527,7 @@
         <v>3273</v>
       </c>
       <c r="B3273">
-        <v>66.00194247484426</v>
+        <v>66.00194247484424</v>
       </c>
     </row>
     <row r="3274" spans="1:2">
@@ -26535,7 +26535,7 @@
         <v>3274</v>
       </c>
       <c r="B3274">
-        <v>76.64628259902432</v>
+        <v>76.6462825990243</v>
       </c>
     </row>
     <row r="3275" spans="1:2">
@@ -26543,7 +26543,7 @@
         <v>3275</v>
       </c>
       <c r="B3275">
-        <v>81.40253248545929</v>
+        <v>81.40253248545928</v>
       </c>
     </row>
     <row r="3276" spans="1:2">
@@ -26743,7 +26743,7 @@
         <v>3300</v>
       </c>
       <c r="B3300">
-        <v>5.076342074860895</v>
+        <v>5.076342074860894</v>
       </c>
     </row>
     <row r="3301" spans="1:2">
@@ -26895,7 +26895,7 @@
         <v>3319</v>
       </c>
       <c r="B3319">
-        <v>6.90888597250642</v>
+        <v>6.908885972506419</v>
       </c>
     </row>
     <row r="3320" spans="1:2">
@@ -26959,7 +26959,7 @@
         <v>3327</v>
       </c>
       <c r="B3327">
-        <v>49.32649344605237</v>
+        <v>49.32649344605236</v>
       </c>
     </row>
     <row r="3328" spans="1:2">
@@ -26983,7 +26983,7 @@
         <v>3330</v>
       </c>
       <c r="B3330">
-        <v>56.26143343389578</v>
+        <v>56.26143343389577</v>
       </c>
     </row>
     <row r="3331" spans="1:2">
@@ -26991,7 +26991,7 @@
         <v>3331</v>
       </c>
       <c r="B3331">
-        <v>45.70647997650743</v>
+        <v>45.70647997650742</v>
       </c>
     </row>
     <row r="3332" spans="1:2">
@@ -27095,7 +27095,7 @@
         <v>3344</v>
       </c>
       <c r="B3344">
-        <v>23.58029062096478</v>
+        <v>23.58029062096477</v>
       </c>
     </row>
     <row r="3345" spans="1:2">
@@ -27103,7 +27103,7 @@
         <v>3345</v>
       </c>
       <c r="B3345">
-        <v>30.24639654504415</v>
+        <v>30.24639654504414</v>
       </c>
     </row>
     <row r="3346" spans="1:2">
@@ -27111,7 +27111,7 @@
         <v>3346</v>
       </c>
       <c r="B3346">
-        <v>32.33364848239025</v>
+        <v>32.33364848239024</v>
       </c>
     </row>
     <row r="3347" spans="1:2">
@@ -27455,7 +27455,7 @@
         <v>3389</v>
       </c>
       <c r="B3389">
-        <v>1.754592862782382</v>
+        <v>1.754592862782381</v>
       </c>
     </row>
     <row r="3390" spans="1:2">
@@ -27535,7 +27535,7 @@
         <v>3399</v>
       </c>
       <c r="B3399">
-        <v>56.61018796990278</v>
+        <v>56.61018796990277</v>
       </c>
     </row>
     <row r="3400" spans="1:2">
@@ -27591,7 +27591,7 @@
         <v>3406</v>
       </c>
       <c r="B3406">
-        <v>21.88798121531871</v>
+        <v>21.8879812153187</v>
       </c>
     </row>
     <row r="3407" spans="1:2">
@@ -27719,7 +27719,7 @@
         <v>3422</v>
       </c>
       <c r="B3422">
-        <v>69.32947104780517</v>
+        <v>69.32947104780516</v>
       </c>
     </row>
     <row r="3423" spans="1:2">
@@ -27727,7 +27727,7 @@
         <v>3423</v>
       </c>
       <c r="B3423">
-        <v>77.4000613104613</v>
+        <v>77.40006131046128</v>
       </c>
     </row>
     <row r="3424" spans="1:2">
@@ -27751,7 +27751,7 @@
         <v>3426</v>
       </c>
       <c r="B3426">
-        <v>93.24172323426166</v>
+        <v>93.24172323426164</v>
       </c>
     </row>
     <row r="3427" spans="1:2">
@@ -27879,7 +27879,7 @@
         <v>3442</v>
       </c>
       <c r="B3442">
-        <v>64.54479327062005</v>
+        <v>64.54479327062003</v>
       </c>
     </row>
     <row r="3443" spans="1:2">
@@ -27895,7 +27895,7 @@
         <v>3444</v>
       </c>
       <c r="B3444">
-        <v>71.63506090895397</v>
+        <v>71.63506090895396</v>
       </c>
     </row>
     <row r="3445" spans="1:2">
@@ -27903,7 +27903,7 @@
         <v>3445</v>
       </c>
       <c r="B3445">
-        <v>79.22735923651479</v>
+        <v>79.22735923651477</v>
       </c>
     </row>
     <row r="3446" spans="1:2">
@@ -27911,7 +27911,7 @@
         <v>3446</v>
       </c>
       <c r="B3446">
-        <v>89.80487916388006</v>
+        <v>89.80487916388005</v>
       </c>
     </row>
     <row r="3447" spans="1:2">
@@ -27919,7 +27919,7 @@
         <v>3447</v>
       </c>
       <c r="B3447">
-        <v>104.6955255672244</v>
+        <v>104.6955255672243</v>
       </c>
     </row>
     <row r="3448" spans="1:2">
@@ -27959,7 +27959,7 @@
         <v>3452</v>
       </c>
       <c r="B3452">
-        <v>86.74023531259837</v>
+        <v>86.74023531259836</v>
       </c>
     </row>
     <row r="3453" spans="1:2">
@@ -27975,7 +27975,7 @@
         <v>3454</v>
       </c>
       <c r="B3454">
-        <v>81.2038303212469</v>
+        <v>81.20383032124688</v>
       </c>
     </row>
     <row r="3455" spans="1:2">
@@ -28047,7 +28047,7 @@
         <v>3463</v>
       </c>
       <c r="B3463">
-        <v>47.85117383743116</v>
+        <v>47.85117383743115</v>
       </c>
     </row>
     <row r="3464" spans="1:2">
@@ -28071,7 +28071,7 @@
         <v>3466</v>
       </c>
       <c r="B3466">
-        <v>72.52394536921383</v>
+        <v>72.52394536921382</v>
       </c>
     </row>
     <row r="3467" spans="1:2">
@@ -28151,7 +28151,7 @@
         <v>3476</v>
       </c>
       <c r="B3476">
-        <v>73.96116574280907</v>
+        <v>73.96116574280906</v>
       </c>
     </row>
     <row r="3477" spans="1:2">
@@ -28391,7 +28391,7 @@
         <v>3506</v>
       </c>
       <c r="B3506">
-        <v>26.8177291566412</v>
+        <v>26.81772915664119</v>
       </c>
     </row>
     <row r="3507" spans="1:2">
@@ -28399,7 +28399,7 @@
         <v>3507</v>
       </c>
       <c r="B3507">
-        <v>20.08864226635352</v>
+        <v>20.08864226635351</v>
       </c>
     </row>
     <row r="3508" spans="1:2">
@@ -28511,7 +28511,7 @@
         <v>3521</v>
       </c>
       <c r="B3521">
-        <v>120.3510873814748</v>
+        <v>120.3510873814747</v>
       </c>
     </row>
     <row r="3522" spans="1:2">
@@ -28551,7 +28551,7 @@
         <v>3526</v>
       </c>
       <c r="B3526">
-        <v>66.76363410432509</v>
+        <v>66.76363410432508</v>
       </c>
     </row>
     <row r="3527" spans="1:2">
@@ -28639,7 +28639,7 @@
         <v>3537</v>
       </c>
       <c r="B3537">
-        <v>78.24645047011526</v>
+        <v>78.24645047011525</v>
       </c>
     </row>
     <row r="3538" spans="1:2">
@@ -28751,7 +28751,7 @@
         <v>3551</v>
       </c>
       <c r="B3551">
-        <v>46.66159849150476</v>
+        <v>46.66159849150475</v>
       </c>
     </row>
     <row r="3552" spans="1:2">
@@ -28775,7 +28775,7 @@
         <v>3554</v>
       </c>
       <c r="B3554">
-        <v>23.13951177881812</v>
+        <v>23.13951177881811</v>
       </c>
     </row>
     <row r="3555" spans="1:2">
@@ -28823,7 +28823,7 @@
         <v>3560</v>
       </c>
       <c r="B3560">
-        <v>62.12373342023867</v>
+        <v>62.12373342023866</v>
       </c>
     </row>
     <row r="3561" spans="1:2">
@@ -28839,7 +28839,7 @@
         <v>3562</v>
       </c>
       <c r="B3562">
-        <v>87.20651133510857</v>
+        <v>87.20651133510856</v>
       </c>
     </row>
     <row r="3563" spans="1:2">
@@ -28863,7 +28863,7 @@
         <v>3565</v>
       </c>
       <c r="B3565">
-        <v>87.88672921584156</v>
+        <v>87.88672921584154</v>
       </c>
     </row>
     <row r="3566" spans="1:2">
@@ -29047,7 +29047,7 @@
         <v>3588</v>
       </c>
       <c r="B3588">
-        <v>86.5315687330715</v>
+        <v>86.53156873307148</v>
       </c>
     </row>
     <row r="3589" spans="1:2">
@@ -29087,7 +29087,7 @@
         <v>3593</v>
       </c>
       <c r="B3593">
-        <v>132.7178059998676</v>
+        <v>132.7178059998675</v>
       </c>
     </row>
     <row r="3594" spans="1:2">
@@ -29135,7 +29135,7 @@
         <v>3599</v>
       </c>
       <c r="B3599">
-        <v>65.85218317408831</v>
+        <v>65.8521831740883</v>
       </c>
     </row>
     <row r="3600" spans="1:2">
@@ -29159,7 +29159,7 @@
         <v>3602</v>
       </c>
       <c r="B3602">
-        <v>36.59079838998495</v>
+        <v>36.59079838998494</v>
       </c>
     </row>
     <row r="3603" spans="1:2">
@@ -29359,7 +29359,7 @@
         <v>3627</v>
       </c>
       <c r="B3627">
-        <v>38.47348674234543</v>
+        <v>38.47348674234542</v>
       </c>
     </row>
     <row r="3628" spans="1:2">
@@ -29639,7 +29639,7 @@
         <v>3662</v>
       </c>
       <c r="B3662">
-        <v>71.29861535657075</v>
+        <v>71.29861535657074</v>
       </c>
     </row>
     <row r="3663" spans="1:2">
@@ -29663,7 +29663,7 @@
         <v>3665</v>
       </c>
       <c r="B3665">
-        <v>66.61387480356915</v>
+        <v>66.61387480356913</v>
       </c>
     </row>
     <row r="3666" spans="1:2">
@@ -29679,7 +29679,7 @@
         <v>3667</v>
       </c>
       <c r="B3667">
-        <v>62.10058080818443</v>
+        <v>62.10058080818442</v>
       </c>
     </row>
     <row r="3668" spans="1:2">
@@ -29791,7 +29791,7 @@
         <v>3681</v>
       </c>
       <c r="B3681">
-        <v>48.72540474575795</v>
+        <v>48.72540474575794</v>
       </c>
     </row>
     <row r="3682" spans="1:2">
@@ -29807,7 +29807,7 @@
         <v>3683</v>
       </c>
       <c r="B3683">
-        <v>59.71586176659706</v>
+        <v>59.71586176659705</v>
       </c>
     </row>
     <row r="3684" spans="1:2">
@@ -29831,7 +29831,7 @@
         <v>3686</v>
       </c>
       <c r="B3686">
-        <v>75.58184858660631</v>
+        <v>75.5818485866063</v>
       </c>
     </row>
     <row r="3687" spans="1:2">
@@ -29871,7 +29871,7 @@
         <v>3691</v>
       </c>
       <c r="B3691">
-        <v>62.87516756336636</v>
+        <v>62.87516756336635</v>
       </c>
     </row>
     <row r="3692" spans="1:2">
@@ -29991,7 +29991,7 @@
         <v>3706</v>
       </c>
       <c r="B3706">
-        <v>64.24468852703083</v>
+        <v>64.24468852703082</v>
       </c>
     </row>
     <row r="3707" spans="1:2">
@@ -30071,7 +30071,7 @@
         <v>3716</v>
       </c>
       <c r="B3716">
-        <v>78.66964504994225</v>
+        <v>78.66964504994223</v>
       </c>
     </row>
     <row r="3717" spans="1:2">
@@ -30079,7 +30079,7 @@
         <v>3717</v>
       </c>
       <c r="B3717">
-        <v>62.78578089657465</v>
+        <v>62.78578089657464</v>
       </c>
     </row>
     <row r="3718" spans="1:2">
@@ -30111,7 +30111,7 @@
         <v>3721</v>
       </c>
       <c r="B3721">
-        <v>28.97915737387249</v>
+        <v>28.97915737387248</v>
       </c>
     </row>
     <row r="3722" spans="1:2">
@@ -30231,7 +30231,7 @@
         <v>3736</v>
       </c>
       <c r="B3736">
-        <v>68.60558558231165</v>
+        <v>68.60558558231163</v>
       </c>
     </row>
     <row r="3737" spans="1:2">
@@ -30255,7 +30255,7 @@
         <v>3739</v>
       </c>
       <c r="B3739">
-        <v>83.26236129680419</v>
+        <v>83.26236129680417</v>
       </c>
     </row>
     <row r="3740" spans="1:2">
@@ -30287,7 +30287,7 @@
         <v>3743</v>
       </c>
       <c r="B3743">
-        <v>47.88692850414784</v>
+        <v>47.88692850414783</v>
       </c>
     </row>
     <row r="3744" spans="1:2">
@@ -30311,7 +30311,7 @@
         <v>3746</v>
       </c>
       <c r="B3746">
-        <v>32.5144733132443</v>
+        <v>32.51447331324429</v>
       </c>
     </row>
     <row r="3747" spans="1:2">
@@ -30327,7 +30327,7 @@
         <v>3748</v>
       </c>
       <c r="B3748">
-        <v>26.30309641275188</v>
+        <v>26.30309641275187</v>
       </c>
     </row>
     <row r="3749" spans="1:2">
@@ -30439,7 +30439,7 @@
         <v>3762</v>
       </c>
       <c r="B3762">
-        <v>116.6041741521895</v>
+        <v>116.6041741521894</v>
       </c>
     </row>
     <row r="3763" spans="1:2">
@@ -30455,7 +30455,7 @@
         <v>3764</v>
       </c>
       <c r="B3764">
-        <v>111.3227409644734</v>
+        <v>111.3227409644733</v>
       </c>
     </row>
     <row r="3765" spans="1:2">
@@ -30471,7 +30471,7 @@
         <v>3766</v>
       </c>
       <c r="B3766">
-        <v>96.29376503088091</v>
+        <v>96.29376503088088</v>
       </c>
     </row>
     <row r="3767" spans="1:2">
@@ -30639,7 +30639,7 @@
         <v>3787</v>
       </c>
       <c r="B3787">
-        <v>135.0392216971041</v>
+        <v>135.039221697104</v>
       </c>
     </row>
     <row r="3788" spans="1:2">
@@ -30703,7 +30703,7 @@
         <v>3795</v>
       </c>
       <c r="B3795">
-        <v>48.28726354295924</v>
+        <v>48.28726354295923</v>
       </c>
     </row>
     <row r="3796" spans="1:2">
@@ -30727,7 +30727,7 @@
         <v>3798</v>
       </c>
       <c r="B3798">
-        <v>51.5939840721752</v>
+        <v>51.59398407217519</v>
       </c>
     </row>
     <row r="3799" spans="1:2">
@@ -30855,7 +30855,7 @@
         <v>3814</v>
       </c>
       <c r="B3814">
-        <v>52.11594359203105</v>
+        <v>52.11594359203104</v>
       </c>
     </row>
     <row r="3815" spans="1:2">
@@ -30991,7 +30991,7 @@
         <v>3831</v>
       </c>
       <c r="B3831">
-        <v>82.14693292365911</v>
+        <v>82.14693292365909</v>
       </c>
     </row>
     <row r="3832" spans="1:2">
@@ -31127,7 +31127,7 @@
         <v>3848</v>
       </c>
       <c r="B3848">
-        <v>35.09027467203886</v>
+        <v>35.09027467203885</v>
       </c>
     </row>
     <row r="3849" spans="1:2">
@@ -31151,7 +31151,7 @@
         <v>3851</v>
       </c>
       <c r="B3851">
-        <v>60.34801599698958</v>
+        <v>60.34801599698957</v>
       </c>
     </row>
     <row r="3852" spans="1:2">
@@ -31199,7 +31199,7 @@
         <v>3857</v>
       </c>
       <c r="B3857">
-        <v>84.66118936433479</v>
+        <v>84.66118936433477</v>
       </c>
     </row>
     <row r="3858" spans="1:2">
@@ -31223,7 +31223,7 @@
         <v>3860</v>
       </c>
       <c r="B3860">
-        <v>60.43916109001326</v>
+        <v>60.43916109001325</v>
       </c>
     </row>
     <row r="3861" spans="1:2">
@@ -31519,7 +31519,7 @@
         <v>3897</v>
       </c>
       <c r="B3897">
-        <v>70.58791808781699</v>
+        <v>70.58791808781697</v>
       </c>
     </row>
     <row r="3898" spans="1:2">
@@ -31639,7 +31639,7 @@
         <v>3912</v>
       </c>
       <c r="B3912">
-        <v>48.95986157668703</v>
+        <v>48.95986157668702</v>
       </c>
     </row>
     <row r="3913" spans="1:2">
@@ -31687,7 +31687,7 @@
         <v>3918</v>
       </c>
       <c r="B3918">
-        <v>48.1571400017936</v>
+        <v>48.15714000179359</v>
       </c>
     </row>
     <row r="3919" spans="1:2">
@@ -31759,7 +31759,7 @@
         <v>3927</v>
       </c>
       <c r="B3927">
-        <v>162.6421174734229</v>
+        <v>162.6421174734228</v>
       </c>
     </row>
     <row r="3928" spans="1:2">
@@ -31831,7 +31831,7 @@
         <v>3936</v>
       </c>
       <c r="B3936">
-        <v>72.8782682549554</v>
+        <v>72.87826825495539</v>
       </c>
     </row>
     <row r="3937" spans="1:2">
@@ -31839,7 +31839,7 @@
         <v>3937</v>
       </c>
       <c r="B3937">
-        <v>67.04908529598124</v>
+        <v>67.04908529598123</v>
       </c>
     </row>
     <row r="3938" spans="1:2">
@@ -31847,7 +31847,7 @@
         <v>3938</v>
       </c>
       <c r="B3938">
-        <v>60.33482780024982</v>
+        <v>60.33482780024981</v>
       </c>
     </row>
     <row r="3939" spans="1:2">
@@ -31871,7 +31871,7 @@
         <v>3941</v>
       </c>
       <c r="B3941">
-        <v>55.88395793609997</v>
+        <v>55.88395793609996</v>
       </c>
     </row>
     <row r="3942" spans="1:2">
@@ -32095,7 +32095,7 @@
         <v>3969</v>
       </c>
       <c r="B3969">
-        <v>141.5269352799503</v>
+        <v>141.5269352799502</v>
       </c>
     </row>
     <row r="3970" spans="1:2">
@@ -32191,7 +32191,7 @@
         <v>3981</v>
       </c>
       <c r="B3981">
-        <v>136.3964336771448</v>
+        <v>136.3964336771447</v>
       </c>
     </row>
     <row r="3982" spans="1:2">
@@ -32215,7 +32215,7 @@
         <v>3984</v>
       </c>
       <c r="B3984">
-        <v>89.29024641999074</v>
+        <v>89.29024641999072</v>
       </c>
     </row>
     <row r="3985" spans="1:2">
@@ -32271,7 +32271,7 @@
         <v>3991</v>
       </c>
       <c r="B3991">
-        <v>80.79118629881172</v>
+        <v>80.79118629881171</v>
       </c>
     </row>
     <row r="3992" spans="1:2">
@@ -32303,7 +32303,7 @@
         <v>3995</v>
       </c>
       <c r="B3995">
-        <v>143.6801282009952</v>
+        <v>143.6801282009951</v>
       </c>
     </row>
     <row r="3996" spans="1:2">
@@ -32423,7 +32423,7 @@
         <v>4010</v>
       </c>
       <c r="B4010">
-        <v>52.08077506739169</v>
+        <v>52.08077506739168</v>
       </c>
     </row>
     <row r="4011" spans="1:2">
@@ -32463,7 +32463,7 @@
         <v>4015</v>
       </c>
       <c r="B4015">
-        <v>79.3167459033065</v>
+        <v>79.31674590330648</v>
       </c>
     </row>
     <row r="4016" spans="1:2">
@@ -32479,7 +32479,7 @@
         <v>4017</v>
       </c>
       <c r="B4017">
-        <v>69.85201670973835</v>
+        <v>69.85201670973834</v>
       </c>
     </row>
     <row r="4018" spans="1:2">
@@ -32927,7 +32927,7 @@
         <v>4073</v>
       </c>
       <c r="B4073">
-        <v>130.3638594173397</v>
+        <v>130.3638594173396</v>
       </c>
     </row>
     <row r="4074" spans="1:2">
@@ -33359,7 +33359,7 @@
         <v>4127</v>
       </c>
       <c r="B4127">
-        <v>69.42149535394483</v>
+        <v>69.42149535394482</v>
       </c>
     </row>
     <row r="4128" spans="1:2">
@@ -33399,7 +33399,7 @@
         <v>4132</v>
       </c>
       <c r="B4132">
-        <v>45.15111035824418</v>
+        <v>45.15111035824417</v>
       </c>
     </row>
     <row r="4133" spans="1:2">
@@ -33447,7 +33447,7 @@
         <v>4138</v>
       </c>
       <c r="B4138">
-        <v>96.38051405832466</v>
+        <v>96.38051405832464</v>
       </c>
     </row>
     <row r="4139" spans="1:2">
@@ -33455,7 +33455,7 @@
         <v>4139</v>
       </c>
       <c r="B4139">
-        <v>90.23334902240296</v>
+        <v>90.23334902240292</v>
       </c>
     </row>
     <row r="4140" spans="1:2">
@@ -33599,7 +33599,7 @@
         <v>4157</v>
       </c>
       <c r="B4157">
-        <v>38.05322287290506</v>
+        <v>38.05322287290505</v>
       </c>
     </row>
     <row r="4158" spans="1:2">
@@ -33671,7 +33671,7 @@
         <v>4166</v>
       </c>
       <c r="B4166">
-        <v>121.4928921480994</v>
+        <v>121.4928921480993</v>
       </c>
     </row>
     <row r="4167" spans="1:2">
@@ -33679,7 +33679,7 @@
         <v>4167</v>
       </c>
       <c r="B4167">
-        <v>121.257849175093</v>
+        <v>121.2578491750929</v>
       </c>
     </row>
     <row r="4168" spans="1:2">
@@ -33743,7 +33743,7 @@
         <v>4175</v>
       </c>
       <c r="B4175">
-        <v>70.94693011017714</v>
+        <v>70.94693011017712</v>
       </c>
     </row>
     <row r="4176" spans="1:2">
@@ -33879,7 +33879,7 @@
         <v>4192</v>
       </c>
       <c r="B4192">
-        <v>145.4285900176488</v>
+        <v>145.4285900176487</v>
       </c>
     </row>
     <row r="4193" spans="1:2">
@@ -33951,7 +33951,7 @@
         <v>4201</v>
       </c>
       <c r="B4201">
-        <v>76.57799704701623</v>
+        <v>76.57799704701621</v>
       </c>
     </row>
     <row r="4202" spans="1:2">
@@ -33991,7 +33991,7 @@
         <v>4206</v>
       </c>
       <c r="B4206">
-        <v>78.67960946525673</v>
+        <v>78.67960946525672</v>
       </c>
     </row>
     <row r="4207" spans="1:2">
@@ -34135,7 +34135,7 @@
         <v>4224</v>
       </c>
       <c r="B4224">
-        <v>43.19661960141167</v>
+        <v>43.19661960141166</v>
       </c>
     </row>
     <row r="4225" spans="1:2">
@@ -34367,7 +34367,7 @@
         <v>4253</v>
       </c>
       <c r="B4253">
-        <v>50.51606879197877</v>
+        <v>50.51606879197876</v>
       </c>
     </row>
     <row r="4254" spans="1:2">
@@ -34415,7 +34415,7 @@
         <v>4259</v>
       </c>
       <c r="B4259">
-        <v>78.2537772460818</v>
+        <v>78.25377724608178</v>
       </c>
     </row>
     <row r="4260" spans="1:2">
@@ -34423,7 +34423,7 @@
         <v>4260</v>
       </c>
       <c r="B4260">
-        <v>80.2765535549224</v>
+        <v>80.27655355492239</v>
       </c>
     </row>
     <row r="4261" spans="1:2">
@@ -34575,7 +34575,7 @@
         <v>4279</v>
       </c>
       <c r="B4279">
-        <v>60.26097389850716</v>
+        <v>60.26097389850715</v>
       </c>
     </row>
     <row r="4280" spans="1:2">
@@ -34615,7 +34615,7 @@
         <v>4284</v>
       </c>
       <c r="B4284">
-        <v>87.56083422085014</v>
+        <v>87.56083422085013</v>
       </c>
     </row>
     <row r="4285" spans="1:2">
@@ -34831,7 +34831,7 @@
         <v>4311</v>
       </c>
       <c r="B4311">
-        <v>150.6001215658669</v>
+        <v>150.6001215658668</v>
       </c>
     </row>
     <row r="4312" spans="1:2">
@@ -34967,7 +34967,7 @@
         <v>4328</v>
       </c>
       <c r="B4328">
-        <v>51.08931574360036</v>
+        <v>51.08931574360035</v>
       </c>
     </row>
     <row r="4329" spans="1:2">
@@ -34975,7 +34975,7 @@
         <v>4329</v>
       </c>
       <c r="B4329">
-        <v>69.13340652294073</v>
+        <v>69.13340652294072</v>
       </c>
     </row>
     <row r="4330" spans="1:2">
@@ -35031,7 +35031,7 @@
         <v>4336</v>
       </c>
       <c r="B4336">
-        <v>96.92035091153886</v>
+        <v>96.92035091153885</v>
       </c>
     </row>
     <row r="4337" spans="1:2">
@@ -35039,7 +35039,7 @@
         <v>4337</v>
       </c>
       <c r="B4337">
-        <v>88.50803981780361</v>
+        <v>88.50803981780359</v>
       </c>
     </row>
     <row r="4338" spans="1:2">
@@ -35079,7 +35079,7 @@
         <v>4342</v>
       </c>
       <c r="B4342">
-        <v>74.09099621293605</v>
+        <v>74.09099621293603</v>
       </c>
     </row>
     <row r="4343" spans="1:2">
@@ -35087,7 +35087,7 @@
         <v>4343</v>
       </c>
       <c r="B4343">
-        <v>60.9180391671859</v>
+        <v>60.91803916718589</v>
       </c>
     </row>
     <row r="4344" spans="1:2">
@@ -35111,7 +35111,7 @@
         <v>4346</v>
       </c>
       <c r="B4346">
-        <v>45.02596902473579</v>
+        <v>45.02596902473578</v>
       </c>
     </row>
     <row r="4347" spans="1:2">
@@ -35215,7 +35215,7 @@
         <v>4359</v>
       </c>
       <c r="B4359">
-        <v>107.4506864016797</v>
+        <v>107.4506864016796</v>
       </c>
     </row>
     <row r="4360" spans="1:2">
@@ -35335,7 +35335,7 @@
         <v>4374</v>
       </c>
       <c r="B4374">
-        <v>65.99461569887772</v>
+        <v>65.99461569887771</v>
       </c>
     </row>
     <row r="4375" spans="1:2">
@@ -35487,7 +35487,7 @@
         <v>4393</v>
       </c>
       <c r="B4393">
-        <v>68.05578431378297</v>
+        <v>68.05578431378295</v>
       </c>
     </row>
     <row r="4394" spans="1:2">
@@ -35783,7 +35783,7 @@
         <v>4430</v>
       </c>
       <c r="B4430">
-        <v>60.0824936359624</v>
+        <v>60.08249363596239</v>
       </c>
     </row>
     <row r="4431" spans="1:2">
@@ -35799,7 +35799,7 @@
         <v>4432</v>
       </c>
       <c r="B4432">
-        <v>68.73600219451595</v>
+        <v>68.73600219451593</v>
       </c>
     </row>
     <row r="4433" spans="1:2">
@@ -35879,7 +35879,7 @@
         <v>4442</v>
       </c>
       <c r="B4442">
-        <v>35.79598973313538</v>
+        <v>35.79598973313537</v>
       </c>
     </row>
     <row r="4443" spans="1:2">
@@ -35911,7 +35911,7 @@
         <v>4446</v>
       </c>
       <c r="B4446">
-        <v>45.65812325512831</v>
+        <v>45.6581232551283</v>
       </c>
     </row>
     <row r="4447" spans="1:2">
@@ -35919,7 +35919,7 @@
         <v>4447</v>
       </c>
       <c r="B4447">
-        <v>64.66993460412844</v>
+        <v>64.66993460412843</v>
       </c>
     </row>
     <row r="4448" spans="1:2">
@@ -36087,7 +36087,7 @@
         <v>4468</v>
       </c>
       <c r="B4468">
-        <v>46.4883935076559</v>
+        <v>46.48839350765589</v>
       </c>
     </row>
     <row r="4469" spans="1:2">
@@ -36167,7 +36167,7 @@
         <v>4478</v>
       </c>
       <c r="B4478">
-        <v>136.8316441695569</v>
+        <v>136.8316441695568</v>
       </c>
     </row>
     <row r="4479" spans="1:2">
@@ -36295,7 +36295,7 @@
         <v>4494</v>
       </c>
       <c r="B4494">
-        <v>75.15865400677933</v>
+        <v>75.15865400677932</v>
       </c>
     </row>
     <row r="4495" spans="1:2">
@@ -36383,7 +36383,7 @@
         <v>4505</v>
       </c>
       <c r="B4505">
-        <v>184.4521710995616</v>
+        <v>184.4521710995615</v>
       </c>
     </row>
     <row r="4506" spans="1:2">
@@ -36407,7 +36407,7 @@
         <v>4508</v>
       </c>
       <c r="B4508">
-        <v>132.6820513331509</v>
+        <v>132.6820513331508</v>
       </c>
     </row>
     <row r="4509" spans="1:2">
@@ -36535,7 +36535,7 @@
         <v>4524</v>
       </c>
       <c r="B4524">
-        <v>159.4230251847667</v>
+        <v>159.4230251847666</v>
       </c>
     </row>
     <row r="4525" spans="1:2">
@@ -36647,7 +36647,7 @@
         <v>4538</v>
       </c>
       <c r="B4538">
-        <v>58.36304585213629</v>
+        <v>58.36304585213628</v>
       </c>
     </row>
     <row r="4539" spans="1:2">
@@ -36695,7 +36695,7 @@
         <v>4544</v>
       </c>
       <c r="B4544">
-        <v>75.89719302420592</v>
+        <v>75.8971930242059</v>
       </c>
     </row>
     <row r="4545" spans="1:2">
@@ -36815,7 +36815,7 @@
         <v>4559</v>
       </c>
       <c r="B4559">
-        <v>70.27726278683596</v>
+        <v>70.27726278683595</v>
       </c>
     </row>
     <row r="4560" spans="1:2">
@@ -36831,7 +36831,7 @@
         <v>4561</v>
       </c>
       <c r="B4561">
-        <v>55.74152541131056</v>
+        <v>55.74152541131055</v>
       </c>
     </row>
     <row r="4562" spans="1:2">
@@ -37095,7 +37095,7 @@
         <v>4594</v>
       </c>
       <c r="B4594">
-        <v>89.95581074879065</v>
+        <v>89.95581074879064</v>
       </c>
     </row>
     <row r="4595" spans="1:2">
@@ -37159,7 +37159,7 @@
         <v>4602</v>
       </c>
       <c r="B4602">
-        <v>145.6524962911861</v>
+        <v>145.652496291186</v>
       </c>
     </row>
     <row r="4603" spans="1:2">
@@ -37287,7 +37287,7 @@
         <v>4618</v>
       </c>
       <c r="B4618">
-        <v>78.720053268592</v>
+        <v>78.72005326859198</v>
       </c>
     </row>
     <row r="4619" spans="1:2">
@@ -37495,7 +37495,7 @@
         <v>4644</v>
       </c>
       <c r="B4644">
-        <v>94.05909836108816</v>
+        <v>94.05909836108812</v>
       </c>
     </row>
     <row r="4645" spans="1:2">
@@ -37631,7 +37631,7 @@
         <v>4661</v>
       </c>
       <c r="B4661">
-        <v>48.56450874553287</v>
+        <v>48.56450874553286</v>
       </c>
     </row>
     <row r="4662" spans="1:2">
@@ -37639,7 +37639,7 @@
         <v>4662</v>
       </c>
       <c r="B4662">
-        <v>55.87663116013344</v>
+        <v>55.87663116013343</v>
       </c>
     </row>
     <row r="4663" spans="1:2">
@@ -37783,7 +37783,7 @@
         <v>4680</v>
       </c>
       <c r="B4680">
-        <v>62.34500205442799</v>
+        <v>62.34500205442798</v>
       </c>
     </row>
     <row r="4681" spans="1:2">
@@ -37799,7 +37799,7 @@
         <v>4682</v>
       </c>
       <c r="B4682">
-        <v>38.77652219632126</v>
+        <v>38.77652219632125</v>
       </c>
     </row>
     <row r="4683" spans="1:2">
@@ -37919,7 +37919,7 @@
         <v>4697</v>
       </c>
       <c r="B4697">
-        <v>125.1767951040725</v>
+        <v>125.1767951040724</v>
       </c>
     </row>
     <row r="4698" spans="1:2">
@@ -38023,7 +38023,7 @@
         <v>4710</v>
       </c>
       <c r="B4710">
-        <v>37.07465867481483</v>
+        <v>37.07465867481482</v>
       </c>
     </row>
     <row r="4711" spans="1:2">
@@ -38039,7 +38039,7 @@
         <v>4712</v>
       </c>
       <c r="B4712">
-        <v>94.58691930171724</v>
+        <v>94.58691930171722</v>
       </c>
     </row>
     <row r="4713" spans="1:2">
@@ -38223,7 +38223,7 @@
         <v>4735</v>
       </c>
       <c r="B4735">
-        <v>84.57766411831631</v>
+        <v>84.57766411831629</v>
       </c>
     </row>
     <row r="4736" spans="1:2">
@@ -38559,7 +38559,7 @@
         <v>4777</v>
       </c>
       <c r="B4777">
-        <v>86.63355745452564</v>
+        <v>86.63355745452563</v>
       </c>
     </row>
     <row r="4778" spans="1:2">
@@ -38631,7 +38631,7 @@
         <v>4786</v>
       </c>
       <c r="B4786">
-        <v>118.9575345926401</v>
+        <v>118.95753459264</v>
       </c>
     </row>
     <row r="4787" spans="1:2">
@@ -38711,7 +38711,7 @@
         <v>4796</v>
       </c>
       <c r="B4796">
-        <v>162.1312946530362</v>
+        <v>162.1312946530361</v>
       </c>
     </row>
     <row r="4797" spans="1:2">
@@ -38759,7 +38759,7 @@
         <v>4802</v>
       </c>
       <c r="B4802">
-        <v>81.38787893352622</v>
+        <v>81.38787893352621</v>
       </c>
     </row>
     <row r="4803" spans="1:2">
@@ -38959,7 +38959,7 @@
         <v>4827</v>
       </c>
       <c r="B4827">
-        <v>73.98431835486332</v>
+        <v>73.9843183548633</v>
       </c>
     </row>
     <row r="4828" spans="1:2">
@@ -39175,7 +39175,7 @@
         <v>4854</v>
       </c>
       <c r="B4854">
-        <v>82.51649550341106</v>
+        <v>82.51649550341105</v>
       </c>
     </row>
     <row r="4855" spans="1:2">
@@ -39399,7 +39399,7 @@
         <v>4882</v>
       </c>
       <c r="B4882">
-        <v>155.1491702279683</v>
+        <v>155.1491702279682</v>
       </c>
     </row>
     <row r="4883" spans="1:2">
@@ -39527,7 +39527,7 @@
         <v>4898</v>
       </c>
       <c r="B4898">
-        <v>80.96937349031782</v>
+        <v>80.96937349031781</v>
       </c>
     </row>
     <row r="4899" spans="1:2">
@@ -39551,7 +39551,7 @@
         <v>4901</v>
       </c>
       <c r="B4901">
-        <v>68.95727082870526</v>
+        <v>68.95727082870525</v>
       </c>
     </row>
     <row r="4902" spans="1:2">
@@ -39559,7 +39559,7 @@
         <v>4902</v>
       </c>
       <c r="B4902">
-        <v>76.36874432541202</v>
+        <v>76.36874432541201</v>
       </c>
     </row>
     <row r="4903" spans="1:2">
@@ -39743,7 +39743,7 @@
         <v>4925</v>
       </c>
       <c r="B4925">
-        <v>68.48366803022853</v>
+        <v>68.48366803022851</v>
       </c>
     </row>
     <row r="4926" spans="1:2">
@@ -39775,7 +39775,7 @@
         <v>4929</v>
       </c>
       <c r="B4929">
-        <v>89.77908891247786</v>
+        <v>89.77908891247785</v>
       </c>
     </row>
     <row r="4930" spans="1:2">
@@ -39855,7 +39855,7 @@
         <v>4939</v>
       </c>
       <c r="B4939">
-        <v>131.0209246860184</v>
+        <v>131.0209246860183</v>
       </c>
     </row>
     <row r="4940" spans="1:2">
@@ -40031,7 +40031,7 @@
         <v>4961</v>
       </c>
       <c r="B4961">
-        <v>118.8839737619361</v>
+        <v>118.883973761936</v>
       </c>
     </row>
     <row r="4962" spans="1:2">
@@ -40135,7 +40135,7 @@
         <v>4974</v>
       </c>
       <c r="B4974">
-        <v>46.60562192312044</v>
+        <v>46.60562192312043</v>
       </c>
     </row>
     <row r="4975" spans="1:2">
@@ -40159,7 +40159,7 @@
         <v>4977</v>
       </c>
       <c r="B4977">
-        <v>72.04242965269324</v>
+        <v>72.04242965269323</v>
       </c>
     </row>
     <row r="4978" spans="1:2">
@@ -40199,7 +40199,7 @@
         <v>4982</v>
       </c>
       <c r="B4982">
-        <v>93.11394426140532</v>
+        <v>93.11394426140529</v>
       </c>
     </row>
     <row r="4983" spans="1:2">
@@ -40271,7 +40271,7 @@
         <v>4991</v>
       </c>
       <c r="B4991">
-        <v>52.95969511233707</v>
+        <v>52.95969511233706</v>
       </c>
     </row>
     <row r="4992" spans="1:2">
@@ -40343,7 +40343,7 @@
         <v>5000</v>
       </c>
       <c r="B5000">
-        <v>70.08647354066743</v>
+        <v>70.08647354066741</v>
       </c>
     </row>
     <row r="5001" spans="1:2">
@@ -40383,7 +40383,7 @@
         <v>5005</v>
       </c>
       <c r="B5005">
-        <v>85.82350910366569</v>
+        <v>85.82350910366567</v>
       </c>
     </row>
     <row r="5006" spans="1:2">
@@ -40439,7 +40439,7 @@
         <v>5012</v>
       </c>
       <c r="B5012">
-        <v>86.00169629517178</v>
+        <v>86.00169629517177</v>
       </c>
     </row>
     <row r="5013" spans="1:2">
@@ -40447,7 +40447,7 @@
         <v>5013</v>
       </c>
       <c r="B5013">
-        <v>80.47789335848275</v>
+        <v>80.47789335848273</v>
       </c>
     </row>
     <row r="5014" spans="1:2">
@@ -40463,7 +40463,7 @@
         <v>5015</v>
       </c>
       <c r="B5015">
-        <v>59.7208439742543</v>
+        <v>59.72084397425429</v>
       </c>
     </row>
     <row r="5016" spans="1:2">
@@ -40535,7 +40535,7 @@
         <v>5024</v>
       </c>
       <c r="B5024">
-        <v>71.97883323730373</v>
+        <v>71.97883323730372</v>
       </c>
     </row>
     <row r="5025" spans="1:2">
@@ -40543,7 +40543,7 @@
         <v>5025</v>
       </c>
       <c r="B5025">
-        <v>74.47843612604635</v>
+        <v>74.47843612604633</v>
       </c>
     </row>
     <row r="5026" spans="1:2">
@@ -40567,7 +40567,7 @@
         <v>5028</v>
       </c>
       <c r="B5028">
-        <v>65.73231711927582</v>
+        <v>65.73231711927581</v>
       </c>
     </row>
     <row r="5029" spans="1:2">
@@ -40607,7 +40607,7 @@
         <v>5033</v>
       </c>
       <c r="B5033">
-        <v>78.55710577109629</v>
+        <v>78.55710577109627</v>
       </c>
     </row>
     <row r="5034" spans="1:2">
@@ -40639,7 +40639,7 @@
         <v>5037</v>
       </c>
       <c r="B5037">
-        <v>69.68379393354674</v>
+        <v>69.68379393354672</v>
       </c>
     </row>
     <row r="5038" spans="1:2">
@@ -40663,7 +40663,7 @@
         <v>5040</v>
       </c>
       <c r="B5040">
-        <v>43.70627013764375</v>
+        <v>43.70627013764374</v>
       </c>
     </row>
     <row r="5041" spans="1:2">
@@ -40727,7 +40727,7 @@
         <v>5048</v>
       </c>
       <c r="B5048">
-        <v>52.58515032492787</v>
+        <v>52.58515032492786</v>
       </c>
     </row>
     <row r="5049" spans="1:2">
@@ -40743,7 +40743,7 @@
         <v>5050</v>
       </c>
       <c r="B5050">
-        <v>47.98891722560199</v>
+        <v>47.98891722560198</v>
       </c>
     </row>
     <row r="5051" spans="1:2">
@@ -40871,7 +40871,7 @@
         <v>5066</v>
       </c>
       <c r="B5066">
-        <v>35.92845784261031</v>
+        <v>35.9284578426103</v>
       </c>
     </row>
     <row r="5067" spans="1:2">
@@ -40911,7 +40911,7 @@
         <v>5071</v>
       </c>
       <c r="B5071">
-        <v>51.62211889188669</v>
+        <v>51.62211889188668</v>
       </c>
     </row>
     <row r="5072" spans="1:2">
@@ -41047,7 +41047,7 @@
         <v>5088</v>
       </c>
       <c r="B5088">
-        <v>62.49827820764787</v>
+        <v>62.49827820764786</v>
       </c>
     </row>
     <row r="5089" spans="1:2">
@@ -41087,7 +41087,7 @@
         <v>5093</v>
       </c>
       <c r="B5093">
-        <v>45.83601737559575</v>
+        <v>45.83601737559574</v>
       </c>
     </row>
     <row r="5094" spans="1:2">
@@ -41103,7 +41103,7 @@
         <v>5095</v>
       </c>
       <c r="B5095">
-        <v>86.93629983746281</v>
+        <v>86.9362998374628</v>
       </c>
     </row>
     <row r="5096" spans="1:2">
@@ -41119,7 +41119,7 @@
         <v>5097</v>
       </c>
       <c r="B5097">
-        <v>91.97272563685804</v>
+        <v>91.97272563685802</v>
       </c>
     </row>
     <row r="5098" spans="1:2">
@@ -41255,7 +41255,7 @@
         <v>5114</v>
       </c>
       <c r="B5114">
-        <v>63.03547742151412</v>
+        <v>63.03547742151411</v>
       </c>
     </row>
     <row r="5115" spans="1:2">
@@ -41271,7 +41271,7 @@
         <v>5116</v>
       </c>
       <c r="B5116">
-        <v>56.91615413426523</v>
+        <v>56.91615413426522</v>
       </c>
     </row>
     <row r="5117" spans="1:2">
@@ -41319,7 +41319,7 @@
         <v>5122</v>
       </c>
       <c r="B5122">
-        <v>121.5559024214116</v>
+        <v>121.5559024214115</v>
       </c>
     </row>
     <row r="5123" spans="1:2">
@@ -41455,7 +41455,7 @@
         <v>5139</v>
       </c>
       <c r="B5139">
-        <v>57.30593861568482</v>
+        <v>57.30593861568481</v>
       </c>
     </row>
     <row r="5140" spans="1:2">
@@ -41615,7 +41615,7 @@
         <v>5159</v>
       </c>
       <c r="B5159">
-        <v>81.42040981881763</v>
+        <v>81.42040981881762</v>
       </c>
     </row>
     <row r="5160" spans="1:2">
@@ -41647,7 +41647,7 @@
         <v>5163</v>
       </c>
       <c r="B5163">
-        <v>49.8918274796301</v>
+        <v>49.89182747963009</v>
       </c>
     </row>
     <row r="5164" spans="1:2">
@@ -41823,7 +41823,7 @@
         <v>5185</v>
       </c>
       <c r="B5185">
-        <v>82.71197388619818</v>
+        <v>82.71197388619817</v>
       </c>
     </row>
     <row r="5186" spans="1:2">
@@ -41887,7 +41887,7 @@
         <v>5193</v>
       </c>
       <c r="B5193">
-        <v>91.66734561457292</v>
+        <v>91.66734561457289</v>
       </c>
     </row>
     <row r="5194" spans="1:2">
@@ -41911,7 +41911,7 @@
         <v>5196</v>
       </c>
       <c r="B5196">
-        <v>84.53135889420781</v>
+        <v>84.5313588942078</v>
       </c>
     </row>
     <row r="5197" spans="1:2">
@@ -41967,7 +41967,7 @@
         <v>5203</v>
       </c>
       <c r="B5203">
-        <v>67.5179989578394</v>
+        <v>67.51799895783938</v>
       </c>
     </row>
     <row r="5204" spans="1:2">
@@ -41983,7 +41983,7 @@
         <v>5205</v>
       </c>
       <c r="B5205">
-        <v>52.04970953729359</v>
+        <v>52.04970953729358</v>
       </c>
     </row>
     <row r="5206" spans="1:2">
@@ -42103,7 +42103,7 @@
         <v>5220</v>
       </c>
       <c r="B5220">
-        <v>53.08952558246404</v>
+        <v>53.08952558246403</v>
       </c>
     </row>
     <row r="5221" spans="1:2">
@@ -42111,7 +42111,7 @@
         <v>5221</v>
       </c>
       <c r="B5221">
-        <v>60.3653071882706</v>
+        <v>60.36530718827059</v>
       </c>
     </row>
     <row r="5222" spans="1:2">
@@ -42199,7 +42199,7 @@
         <v>5232</v>
       </c>
       <c r="B5232">
-        <v>21.95553408973015</v>
+        <v>21.95553408973014</v>
       </c>
     </row>
     <row r="5233" spans="1:2">
@@ -42223,7 +42223,7 @@
         <v>5235</v>
       </c>
       <c r="B5235">
-        <v>8.220906398385532</v>
+        <v>8.22090639838553</v>
       </c>
     </row>
     <row r="5236" spans="1:2">
@@ -42239,7 +42239,7 @@
         <v>5237</v>
       </c>
       <c r="B5237">
-        <v>4.607018113548616</v>
+        <v>4.607018113548615</v>
       </c>
     </row>
     <row r="5238" spans="1:2">
@@ -42279,7 +42279,7 @@
         <v>5242</v>
       </c>
       <c r="B5242">
-        <v>58.58753826775088</v>
+        <v>58.58753826775087</v>
       </c>
     </row>
     <row r="5243" spans="1:2">
@@ -42295,7 +42295,7 @@
         <v>5244</v>
       </c>
       <c r="B5244">
-        <v>68.47575511218467</v>
+        <v>68.47575511218466</v>
       </c>
     </row>
     <row r="5245" spans="1:2">
@@ -42359,7 +42359,7 @@
         <v>5252</v>
       </c>
       <c r="B5252">
-        <v>73.02070077974481</v>
+        <v>73.0207007797448</v>
       </c>
     </row>
     <row r="5253" spans="1:2">
@@ -42615,7 +42615,7 @@
         <v>5284</v>
       </c>
       <c r="B5284">
-        <v>16.40643912240464</v>
+        <v>16.40643912240463</v>
       </c>
     </row>
     <row r="5285" spans="1:2">
@@ -42639,7 +42639,7 @@
         <v>5287</v>
       </c>
       <c r="B5287">
-        <v>39.73691599001449</v>
+        <v>39.73691599001448</v>
       </c>
     </row>
     <row r="5288" spans="1:2">
@@ -42727,7 +42727,7 @@
         <v>5298</v>
       </c>
       <c r="B5298">
-        <v>145.8227705646483</v>
+        <v>145.8227705646482</v>
       </c>
     </row>
     <row r="5299" spans="1:2">
@@ -42759,7 +42759,7 @@
         <v>5302</v>
       </c>
       <c r="B5302">
-        <v>87.53768160879589</v>
+        <v>87.53768160879588</v>
       </c>
     </row>
     <row r="5303" spans="1:2">
@@ -42767,7 +42767,7 @@
         <v>5303</v>
       </c>
       <c r="B5303">
-        <v>67.00336621395007</v>
+        <v>67.00336621395006</v>
       </c>
     </row>
     <row r="5304" spans="1:2">
@@ -42791,7 +42791,7 @@
         <v>5306</v>
       </c>
       <c r="B5306">
-        <v>44.06791979935185</v>
+        <v>44.06791979935184</v>
       </c>
     </row>
     <row r="5307" spans="1:2">
@@ -42823,7 +42823,7 @@
         <v>5310</v>
       </c>
       <c r="B5310">
-        <v>35.27608171055015</v>
+        <v>35.27608171055014</v>
       </c>
     </row>
     <row r="5311" spans="1:2">
@@ -43047,7 +43047,7 @@
         <v>5338</v>
       </c>
       <c r="B5338">
-        <v>76.35086699205368</v>
+        <v>76.35086699205367</v>
       </c>
     </row>
     <row r="5339" spans="1:2">
@@ -43055,7 +43055,7 @@
         <v>5339</v>
       </c>
       <c r="B5339">
-        <v>84.50615478488294</v>
+        <v>84.50615478488292</v>
       </c>
     </row>
     <row r="5340" spans="1:2">
@@ -43079,7 +43079,7 @@
         <v>5342</v>
       </c>
       <c r="B5342">
-        <v>112.3871749768914</v>
+        <v>112.3871749768913</v>
       </c>
     </row>
     <row r="5343" spans="1:2">
@@ -43335,7 +43335,7 @@
         <v>5374</v>
       </c>
       <c r="B5374">
-        <v>88.0933442980978</v>
+        <v>88.09334429809779</v>
       </c>
     </row>
     <row r="5375" spans="1:2">
@@ -43351,7 +43351,7 @@
         <v>5376</v>
       </c>
       <c r="B5376">
-        <v>73.88760491210508</v>
+        <v>73.88760491210506</v>
       </c>
     </row>
     <row r="5377" spans="1:2">
@@ -43367,7 +43367,7 @@
         <v>5378</v>
       </c>
       <c r="B5378">
-        <v>66.57548249750451</v>
+        <v>66.5754824975045</v>
       </c>
     </row>
     <row r="5379" spans="1:2">
@@ -43407,7 +43407,7 @@
         <v>5383</v>
       </c>
       <c r="B5383">
-        <v>89.78436419117376</v>
+        <v>89.78436419117375</v>
       </c>
     </row>
     <row r="5384" spans="1:2">
@@ -43607,7 +43607,7 @@
         <v>5408</v>
       </c>
       <c r="B5408">
-        <v>106.7440921274672</v>
+        <v>106.7440921274671</v>
       </c>
     </row>
     <row r="5409" spans="1:2">
@@ -43743,7 +43743,7 @@
         <v>5425</v>
       </c>
       <c r="B5425">
-        <v>53.95818814105627</v>
+        <v>53.95818814105626</v>
       </c>
     </row>
     <row r="5426" spans="1:2">
@@ -43951,7 +43951,7 @@
         <v>5451</v>
       </c>
       <c r="B5451">
-        <v>26.28190737665666</v>
+        <v>26.28190737665665</v>
       </c>
     </row>
     <row r="5452" spans="1:2">
@@ -44063,7 +44063,7 @@
         <v>5465</v>
       </c>
       <c r="B5465">
-        <v>44.23145343892488</v>
+        <v>44.23145343892487</v>
       </c>
     </row>
     <row r="5466" spans="1:2">
@@ -44119,7 +44119,7 @@
         <v>5472</v>
       </c>
       <c r="B5472">
-        <v>37.90287743007179</v>
+        <v>37.90287743007178</v>
       </c>
     </row>
     <row r="5473" spans="1:2">
@@ -44295,7 +44295,7 @@
         <v>5494</v>
       </c>
       <c r="B5494">
-        <v>97.71252192904048</v>
+        <v>97.71252192904046</v>
       </c>
     </row>
     <row r="5495" spans="1:2">
@@ -44319,7 +44319,7 @@
         <v>5497</v>
       </c>
       <c r="B5497">
-        <v>62.43702636056765</v>
+        <v>62.43702636056764</v>
       </c>
     </row>
     <row r="5498" spans="1:2">
@@ -44351,7 +44351,7 @@
         <v>5501</v>
       </c>
       <c r="B5501">
-        <v>45.1153556915275</v>
+        <v>45.11535569152749</v>
       </c>
     </row>
     <row r="5502" spans="1:2">
@@ -44375,7 +44375,7 @@
         <v>5504</v>
       </c>
       <c r="B5504">
-        <v>71.8463651278288</v>
+        <v>71.84636512782879</v>
       </c>
     </row>
     <row r="5505" spans="1:2">
@@ -44415,7 +44415,7 @@
         <v>5509</v>
       </c>
       <c r="B5509">
-        <v>102.3322007114593</v>
+        <v>102.3322007114592</v>
       </c>
     </row>
     <row r="5510" spans="1:2">
@@ -44471,7 +44471,7 @@
         <v>5516</v>
       </c>
       <c r="B5516">
-        <v>90.43937796258189</v>
+        <v>90.43937796258186</v>
       </c>
     </row>
     <row r="5517" spans="1:2">
@@ -44551,7 +44551,7 @@
         <v>5526</v>
       </c>
       <c r="B5526">
-        <v>31.8055344707225</v>
+        <v>31.80553447072249</v>
       </c>
     </row>
     <row r="5527" spans="1:2">
@@ -44559,7 +44559,7 @@
         <v>5527</v>
       </c>
       <c r="B5527">
-        <v>47.26298026283784</v>
+        <v>47.26298026283783</v>
       </c>
     </row>
     <row r="5528" spans="1:2">
@@ -44567,7 +44567,7 @@
         <v>5528</v>
       </c>
       <c r="B5528">
-        <v>66.53972783078783</v>
+        <v>66.53972783078781</v>
       </c>
     </row>
     <row r="5529" spans="1:2">
@@ -44639,7 +44639,7 @@
         <v>5537</v>
       </c>
       <c r="B5537">
-        <v>83.92997712287473</v>
+        <v>83.92997712287472</v>
       </c>
     </row>
     <row r="5538" spans="1:2">
@@ -44983,7 +44983,7 @@
         <v>5580</v>
       </c>
       <c r="B5580">
-        <v>91.99851588826024</v>
+        <v>91.9985158882602</v>
       </c>
     </row>
     <row r="5581" spans="1:2">
@@ -45047,7 +45047,7 @@
         <v>5588</v>
       </c>
       <c r="B5588">
-        <v>94.26629958542172</v>
+        <v>94.26629958542171</v>
       </c>
     </row>
     <row r="5589" spans="1:2">
@@ -45063,7 +45063,7 @@
         <v>5590</v>
       </c>
       <c r="B5590">
-        <v>86.83431111600866</v>
+        <v>86.83431111600865</v>
       </c>
     </row>
     <row r="5591" spans="1:2">
@@ -45159,7 +45159,7 @@
         <v>5602</v>
       </c>
       <c r="B5602">
-        <v>58.31234456244788</v>
+        <v>58.31234456244787</v>
       </c>
     </row>
     <row r="5603" spans="1:2">
@@ -45383,7 +45383,7 @@
         <v>5630</v>
       </c>
       <c r="B5630">
-        <v>89.85587352460713</v>
+        <v>89.85587352460712</v>
       </c>
     </row>
     <row r="5631" spans="1:2">
@@ -45407,7 +45407,7 @@
         <v>5633</v>
       </c>
       <c r="B5633">
-        <v>97.7866689018218</v>
+        <v>97.78666890182178</v>
       </c>
     </row>
     <row r="5634" spans="1:2">
@@ -45527,7 +45527,7 @@
         <v>5648</v>
       </c>
       <c r="B5648">
-        <v>47.08450000029308</v>
+        <v>47.08450000029307</v>
       </c>
     </row>
     <row r="5649" spans="1:2">
@@ -45567,7 +45567,7 @@
         <v>5653</v>
       </c>
       <c r="B5653">
-        <v>79.41814848268332</v>
+        <v>79.41814848268331</v>
       </c>
     </row>
     <row r="5654" spans="1:2">
@@ -45575,7 +45575,7 @@
         <v>5654</v>
       </c>
       <c r="B5654">
-        <v>90.39307273847338</v>
+        <v>90.39307273847336</v>
       </c>
     </row>
     <row r="5655" spans="1:2">
@@ -45607,7 +45607,7 @@
         <v>5658</v>
       </c>
       <c r="B5658">
-        <v>106.4287476898676</v>
+        <v>106.4287476898675</v>
       </c>
     </row>
     <row r="5659" spans="1:2">
@@ -45695,7 +45695,7 @@
         <v>5669</v>
       </c>
       <c r="B5669">
-        <v>6.96559521848739</v>
+        <v>6.965595218487389</v>
       </c>
     </row>
     <row r="5670" spans="1:2">
@@ -45743,7 +45743,7 @@
         <v>5675</v>
       </c>
       <c r="B5675">
-        <v>79.68103320436255</v>
+        <v>79.68103320436254</v>
       </c>
     </row>
     <row r="5676" spans="1:2">
@@ -45815,7 +45815,7 @@
         <v>5684</v>
       </c>
       <c r="B5684">
-        <v>88.90339264895776</v>
+        <v>88.90339264895775</v>
       </c>
     </row>
     <row r="5685" spans="1:2">
@@ -45823,7 +45823,7 @@
         <v>5685</v>
       </c>
       <c r="B5685">
-        <v>85.56062438198646</v>
+        <v>85.56062438198644</v>
       </c>
     </row>
     <row r="5686" spans="1:2">
@@ -45839,7 +45839,7 @@
         <v>5687</v>
       </c>
       <c r="B5687">
-        <v>65.85423467135894</v>
+        <v>65.85423467135892</v>
       </c>
     </row>
     <row r="5688" spans="1:2">
@@ -45855,7 +45855,7 @@
         <v>5689</v>
       </c>
       <c r="B5689">
-        <v>47.46402699535952</v>
+        <v>47.46402699535951</v>
       </c>
     </row>
     <row r="5690" spans="1:2">
@@ -46031,7 +46031,7 @@
         <v>5711</v>
       </c>
       <c r="B5711">
-        <v>74.27973396183395</v>
+        <v>74.27973396183394</v>
       </c>
     </row>
     <row r="5712" spans="1:2">
@@ -46063,7 +46063,7 @@
         <v>5715</v>
       </c>
       <c r="B5715">
-        <v>53.16572405251599</v>
+        <v>53.16572405251598</v>
       </c>
     </row>
     <row r="5716" spans="1:2">
@@ -46071,7 +46071,7 @@
         <v>5716</v>
       </c>
       <c r="B5716">
-        <v>49.23974441860861</v>
+        <v>49.2397444186086</v>
       </c>
     </row>
     <row r="5717" spans="1:2">
@@ -46175,7 +46175,7 @@
         <v>5729</v>
       </c>
       <c r="B5729">
-        <v>110.2544970285528</v>
+        <v>110.2544970285527</v>
       </c>
     </row>
     <row r="5730" spans="1:2">
@@ -46415,7 +46415,7 @@
         <v>5759</v>
       </c>
       <c r="B5759">
-        <v>85.88388173762992</v>
+        <v>85.88388173762991</v>
       </c>
     </row>
     <row r="5760" spans="1:2">
@@ -46471,7 +46471,7 @@
         <v>5766</v>
       </c>
       <c r="B5766">
-        <v>60.40897477303114</v>
+        <v>60.40897477303113</v>
       </c>
     </row>
     <row r="5767" spans="1:2">
@@ -46511,7 +46511,7 @@
         <v>5771</v>
       </c>
       <c r="B5771">
-        <v>98.39068831250285</v>
+        <v>98.39068831250282</v>
       </c>
     </row>
     <row r="5772" spans="1:2">
@@ -46535,7 +46535,7 @@
         <v>5774</v>
       </c>
       <c r="B5774">
-        <v>88.47228515108692</v>
+        <v>88.47228515108691</v>
       </c>
     </row>
     <row r="5775" spans="1:2">
@@ -46591,7 +46591,7 @@
         <v>5781</v>
       </c>
       <c r="B5781">
-        <v>69.40566951785712</v>
+        <v>69.40566951785711</v>
       </c>
     </row>
     <row r="5782" spans="1:2">
@@ -46703,7 +46703,7 @@
         <v>5795</v>
       </c>
       <c r="B5795">
-        <v>77.32386284040935</v>
+        <v>77.32386284040933</v>
       </c>
     </row>
     <row r="5796" spans="1:2">
@@ -46791,7 +46791,7 @@
         <v>5806</v>
       </c>
       <c r="B5806">
-        <v>62.67617232811531</v>
+        <v>62.6761723281153</v>
       </c>
     </row>
     <row r="5807" spans="1:2">
@@ -46839,7 +46839,7 @@
         <v>5812</v>
       </c>
       <c r="B5812">
-        <v>20.49823834998661</v>
+        <v>20.4982383499866</v>
       </c>
     </row>
     <row r="5813" spans="1:2">
@@ -46847,7 +46847,7 @@
         <v>5813</v>
       </c>
       <c r="B5813">
-        <v>18.42517105091172</v>
+        <v>18.42517105091171</v>
       </c>
     </row>
     <row r="5814" spans="1:2">
@@ -46887,7 +46887,7 @@
         <v>5818</v>
       </c>
       <c r="B5818">
-        <v>83.45842582166863</v>
+        <v>83.45842582166861</v>
       </c>
     </row>
     <row r="5819" spans="1:2">
@@ -46935,7 +46935,7 @@
         <v>5824</v>
       </c>
       <c r="B5824">
-        <v>111.1512944068565</v>
+        <v>111.1512944068564</v>
       </c>
     </row>
     <row r="5825" spans="1:2">
@@ -47127,7 +47127,7 @@
         <v>5848</v>
       </c>
       <c r="B5848">
-        <v>145.9889418435693</v>
+        <v>145.9889418435692</v>
       </c>
     </row>
     <row r="5849" spans="1:2">
@@ -47183,7 +47183,7 @@
         <v>5855</v>
       </c>
       <c r="B5855">
-        <v>74.55199695675034</v>
+        <v>74.55199695675033</v>
       </c>
     </row>
     <row r="5856" spans="1:2">
@@ -47359,7 +47359,7 @@
         <v>5877</v>
       </c>
       <c r="B5877">
-        <v>103.1548511169817</v>
+        <v>103.1548511169816</v>
       </c>
     </row>
     <row r="5878" spans="1:2">
@@ -47399,7 +47399,7 @@
         <v>5882</v>
       </c>
       <c r="B5882">
-        <v>56.0164260455749</v>
+        <v>56.01642604557489</v>
       </c>
     </row>
     <row r="5883" spans="1:2">
@@ -47455,7 +47455,7 @@
         <v>5889</v>
       </c>
       <c r="B5889">
-        <v>56.64330499727152</v>
+        <v>56.64330499727151</v>
       </c>
     </row>
     <row r="5890" spans="1:2">
@@ -47495,7 +47495,7 @@
         <v>5894</v>
       </c>
       <c r="B5894">
-        <v>78.72738004455853</v>
+        <v>78.72738004455852</v>
       </c>
     </row>
     <row r="5895" spans="1:2">
@@ -47519,7 +47519,7 @@
         <v>5897</v>
       </c>
       <c r="B5897">
-        <v>71.8668801005351</v>
+        <v>71.86688010053508</v>
       </c>
     </row>
     <row r="5898" spans="1:2">
@@ -47615,7 +47615,7 @@
         <v>5909</v>
       </c>
       <c r="B5909">
-        <v>3.732259677352233</v>
+        <v>3.732259677352232</v>
       </c>
     </row>
     <row r="5910" spans="1:2">
@@ -47663,7 +47663,7 @@
         <v>5915</v>
       </c>
       <c r="B5915">
-        <v>52.40930770173106</v>
+        <v>52.40930770173105</v>
       </c>
     </row>
     <row r="5916" spans="1:2">
@@ -47687,7 +47687,7 @@
         <v>5918</v>
       </c>
       <c r="B5918">
-        <v>73.39026335949677</v>
+        <v>73.39026335949676</v>
       </c>
     </row>
     <row r="5919" spans="1:2">
@@ -47711,7 +47711,7 @@
         <v>5921</v>
       </c>
       <c r="B5921">
-        <v>73.56376141438429</v>
+        <v>73.56376141438427</v>
       </c>
     </row>
     <row r="5922" spans="1:2">
@@ -47727,7 +47727,7 @@
         <v>5923</v>
       </c>
       <c r="B5923">
-        <v>54.52879745332991</v>
+        <v>54.5287974533299</v>
       </c>
     </row>
     <row r="5924" spans="1:2">
@@ -47855,7 +47855,7 @@
         <v>5939</v>
       </c>
       <c r="B5939">
-        <v>57.51958740286894</v>
+        <v>57.51958740286893</v>
       </c>
     </row>
     <row r="5940" spans="1:2">
@@ -47983,7 +47983,7 @@
         <v>5955</v>
       </c>
       <c r="B5955">
-        <v>7.024707646985384</v>
+        <v>7.024707646985383</v>
       </c>
     </row>
     <row r="5956" spans="1:2">
@@ -48247,7 +48247,7 @@
         <v>5988</v>
       </c>
       <c r="B5988">
-        <v>92.61044821698512</v>
+        <v>92.61044821698511</v>
       </c>
     </row>
     <row r="5989" spans="1:2">
@@ -48335,7 +48335,7 @@
         <v>5999</v>
       </c>
       <c r="B5999">
-        <v>73.94592604879868</v>
+        <v>73.94592604879867</v>
       </c>
     </row>
     <row r="6000" spans="1:2">
@@ -48359,7 +48359,7 @@
         <v>6002</v>
       </c>
       <c r="B6002">
-        <v>48.39394140103197</v>
+        <v>48.39394140103196</v>
       </c>
     </row>
     <row r="6003" spans="1:2">
@@ -48703,7 +48703,7 @@
         <v>6045</v>
       </c>
       <c r="B6045">
-        <v>61.3054790802962</v>
+        <v>61.30547908029619</v>
       </c>
     </row>
     <row r="6046" spans="1:2">
@@ -48759,7 +48759,7 @@
         <v>6052</v>
       </c>
       <c r="B6052">
-        <v>30.31907816263216</v>
+        <v>30.31907816263215</v>
       </c>
     </row>
     <row r="6053" spans="1:2">
@@ -48831,7 +48831,7 @@
         <v>6061</v>
       </c>
       <c r="B6061">
-        <v>90.69903890283582</v>
+        <v>90.6990389028358</v>
       </c>
     </row>
     <row r="6062" spans="1:2">
@@ -48839,7 +48839,7 @@
         <v>6062</v>
       </c>
       <c r="B6062">
-        <v>79.00550446024815</v>
+        <v>79.00550446024813</v>
       </c>
     </row>
     <row r="6063" spans="1:2">
@@ -48927,7 +48927,7 @@
         <v>6073</v>
       </c>
       <c r="B6073">
-        <v>37.52569500331464</v>
+        <v>37.52569500331463</v>
       </c>
     </row>
     <row r="6074" spans="1:2">
@@ -48935,7 +48935,7 @@
         <v>6074</v>
       </c>
       <c r="B6074">
-        <v>27.77938315580067</v>
+        <v>27.77938315580066</v>
       </c>
     </row>
     <row r="6075" spans="1:2">
@@ -49071,7 +49071,7 @@
         <v>6091</v>
       </c>
       <c r="B6091">
-        <v>81.05084723906567</v>
+        <v>81.05084723906566</v>
       </c>
     </row>
     <row r="6092" spans="1:2">
@@ -49407,7 +49407,7 @@
         <v>6133</v>
       </c>
       <c r="B6133">
-        <v>84.68375583431171</v>
+        <v>84.6837558343117</v>
       </c>
     </row>
     <row r="6134" spans="1:2">
@@ -49487,7 +49487,7 @@
         <v>6143</v>
       </c>
       <c r="B6143">
-        <v>47.67034900657711</v>
+        <v>47.6703490065771</v>
       </c>
     </row>
     <row r="6144" spans="1:2">
@@ -49495,7 +49495,7 @@
         <v>6144</v>
       </c>
       <c r="B6144">
-        <v>33.83915440799358</v>
+        <v>33.83915440799357</v>
       </c>
     </row>
     <row r="6145" spans="1:2">
@@ -49535,7 +49535,7 @@
         <v>6149</v>
       </c>
       <c r="B6149">
-        <v>8.801216362038861</v>
+        <v>8.801216362038859</v>
       </c>
     </row>
     <row r="6150" spans="1:2">
@@ -49567,7 +49567,7 @@
         <v>6153</v>
       </c>
       <c r="B6153">
-        <v>57.22153415655035</v>
+        <v>57.22153415655034</v>
       </c>
     </row>
     <row r="6154" spans="1:2">
@@ -49599,7 +49599,7 @@
         <v>6157</v>
       </c>
       <c r="B6157">
-        <v>87.53299247217731</v>
+        <v>87.5329924721773</v>
       </c>
     </row>
     <row r="6158" spans="1:2">
@@ -49839,7 +49839,7 @@
         <v>6187</v>
       </c>
       <c r="B6187">
-        <v>66.31054627855465</v>
+        <v>66.31054627855464</v>
       </c>
     </row>
     <row r="6188" spans="1:2">
@@ -49879,7 +49879,7 @@
         <v>6192</v>
       </c>
       <c r="B6192">
-        <v>29.53306163694243</v>
+        <v>29.53306163694242</v>
       </c>
     </row>
     <row r="6193" spans="1:2">
@@ -50015,7 +50015,7 @@
         <v>6209</v>
       </c>
       <c r="B6209">
-        <v>98.87220402902342</v>
+        <v>98.87220402902339</v>
       </c>
     </row>
     <row r="6210" spans="1:2">
@@ -50135,7 +50135,7 @@
         <v>6224</v>
       </c>
       <c r="B6224">
-        <v>47.77263079906992</v>
+        <v>47.77263079906991</v>
       </c>
     </row>
     <row r="6225" spans="1:2">
@@ -50183,7 +50183,7 @@
         <v>6230</v>
       </c>
       <c r="B6230">
-        <v>79.35455206729381</v>
+        <v>79.3545520672938</v>
       </c>
     </row>
     <row r="6231" spans="1:2">
@@ -50191,7 +50191,7 @@
         <v>6231</v>
       </c>
       <c r="B6231">
-        <v>98.33500481515718</v>
+        <v>98.33500481515716</v>
       </c>
     </row>
     <row r="6232" spans="1:2">
@@ -50215,7 +50215,7 @@
         <v>6234</v>
       </c>
       <c r="B6234">
-        <v>82.40190472729448</v>
+        <v>82.40190472729446</v>
       </c>
     </row>
     <row r="6235" spans="1:2">
@@ -50335,7 +50335,7 @@
         <v>6249</v>
       </c>
       <c r="B6249">
-        <v>54.77878704930804</v>
+        <v>54.77878704930803</v>
       </c>
     </row>
     <row r="6250" spans="1:2">
@@ -50359,7 +50359,7 @@
         <v>6252</v>
       </c>
       <c r="B6252">
-        <v>68.36175047814541</v>
+        <v>68.3617504781454</v>
       </c>
     </row>
     <row r="6253" spans="1:2">
@@ -50431,7 +50431,7 @@
         <v>6261</v>
       </c>
       <c r="B6261">
-        <v>47.74947818701567</v>
+        <v>47.74947818701566</v>
       </c>
     </row>
     <row r="6262" spans="1:2">
@@ -50455,7 +50455,7 @@
         <v>6264</v>
       </c>
       <c r="B6264">
-        <v>21.6204073570209</v>
+        <v>21.62040735702089</v>
       </c>
     </row>
     <row r="6265" spans="1:2">
@@ -50543,7 +50543,7 @@
         <v>6275</v>
       </c>
       <c r="B6275">
-        <v>89.10473245251811</v>
+        <v>89.10473245251809</v>
       </c>
     </row>
     <row r="6276" spans="1:2">
@@ -50607,7 +50607,7 @@
         <v>6283</v>
       </c>
       <c r="B6283">
-        <v>97.96280459605728</v>
+        <v>97.96280459605724</v>
       </c>
     </row>
     <row r="6284" spans="1:2">
@@ -50631,7 +50631,7 @@
         <v>6286</v>
       </c>
       <c r="B6286">
-        <v>81.38993043079685</v>
+        <v>81.38993043079684</v>
       </c>
     </row>
     <row r="6287" spans="1:2">
@@ -50695,7 +50695,7 @@
         <v>6294</v>
       </c>
       <c r="B6294">
-        <v>42.47068263864752</v>
+        <v>42.47068263864751</v>
       </c>
     </row>
     <row r="6295" spans="1:2">
@@ -50807,7 +50807,7 @@
         <v>6308</v>
       </c>
       <c r="B6308">
-        <v>71.38272674466656</v>
+        <v>71.38272674466654</v>
       </c>
     </row>
     <row r="6309" spans="1:2">
@@ -50847,7 +50847,7 @@
         <v>6313</v>
       </c>
       <c r="B6313">
-        <v>23.68995780363186</v>
+        <v>23.68995780363185</v>
       </c>
     </row>
     <row r="6314" spans="1:2">
@@ -50863,7 +50863,7 @@
         <v>6315</v>
       </c>
       <c r="B6315">
-        <v>10.9710850251836</v>
+        <v>10.97108502518359</v>
       </c>
     </row>
     <row r="6316" spans="1:2">
@@ -50871,7 +50871,7 @@
         <v>6316</v>
       </c>
       <c r="B6316">
-        <v>6.983208787910938</v>
+        <v>6.983208787910937</v>
       </c>
     </row>
     <row r="6317" spans="1:2">
@@ -50879,7 +50879,7 @@
         <v>6317</v>
       </c>
       <c r="B6317">
-        <v>5.058171670463891</v>
+        <v>5.05817167046389</v>
       </c>
     </row>
     <row r="6318" spans="1:2">
@@ -50919,7 +50919,7 @@
         <v>6322</v>
       </c>
       <c r="B6322">
-        <v>29.03472364280268</v>
+        <v>29.03472364280267</v>
       </c>
     </row>
     <row r="6323" spans="1:2">
@@ -50935,7 +50935,7 @@
         <v>6324</v>
       </c>
       <c r="B6324">
-        <v>43.69366808298131</v>
+        <v>43.6936680829813</v>
       </c>
     </row>
     <row r="6325" spans="1:2">
@@ -50959,7 +50959,7 @@
         <v>6327</v>
       </c>
       <c r="B6327">
-        <v>72.59076556602862</v>
+        <v>72.59076556602861</v>
       </c>
     </row>
     <row r="6328" spans="1:2">
@@ -50983,7 +50983,7 @@
         <v>6330</v>
       </c>
       <c r="B6330">
-        <v>52.0344698432832</v>
+        <v>52.03446984328319</v>
       </c>
     </row>
     <row r="6331" spans="1:2">
@@ -51127,7 +51127,7 @@
         <v>6348</v>
       </c>
       <c r="B6348">
-        <v>56.95396029825254</v>
+        <v>56.95396029825253</v>
       </c>
     </row>
     <row r="6349" spans="1:2">
@@ -51199,7 +51199,7 @@
         <v>6357</v>
       </c>
       <c r="B6357">
-        <v>36.77426086018695</v>
+        <v>36.77426086018694</v>
       </c>
     </row>
     <row r="6358" spans="1:2">
@@ -51303,7 +51303,7 @@
         <v>6370</v>
       </c>
       <c r="B6370">
-        <v>43.37275529564714</v>
+        <v>43.37275529564713</v>
       </c>
     </row>
     <row r="6371" spans="1:2">
@@ -51431,7 +51431,7 @@
         <v>6386</v>
       </c>
       <c r="B6386">
-        <v>5.201864400719549</v>
+        <v>5.201864400719548</v>
       </c>
     </row>
     <row r="6387" spans="1:2">
@@ -51575,7 +51575,7 @@
         <v>6404</v>
       </c>
       <c r="B6404">
-        <v>23.8183522256694</v>
+        <v>23.81835222566939</v>
       </c>
     </row>
     <row r="6405" spans="1:2">
@@ -51647,7 +51647,7 @@
         <v>6413</v>
       </c>
       <c r="B6413">
-        <v>2.840356585394161</v>
+        <v>2.84035658539416</v>
       </c>
     </row>
     <row r="6414" spans="1:2">
@@ -51663,7 +51663,7 @@
         <v>6415</v>
       </c>
       <c r="B6415">
-        <v>3.326737281156529</v>
+        <v>3.326737281156528</v>
       </c>
     </row>
     <row r="6416" spans="1:2">
@@ -51711,7 +51711,7 @@
         <v>6421</v>
       </c>
       <c r="B6421">
-        <v>32.46084131316927</v>
+        <v>32.46084131316926</v>
       </c>
     </row>
     <row r="6422" spans="1:2">
@@ -51783,7 +51783,7 @@
         <v>6430</v>
       </c>
       <c r="B6430">
-        <v>28.84349479007615</v>
+        <v>28.84349479007614</v>
       </c>
     </row>
     <row r="6431" spans="1:2">
@@ -51855,7 +51855,7 @@
         <v>6439</v>
       </c>
       <c r="B6439">
-        <v>6.982739874249079</v>
+        <v>6.982739874249078</v>
       </c>
     </row>
     <row r="6440" spans="1:2">
@@ -52071,7 +52071,7 @@
         <v>6466</v>
       </c>
       <c r="B6466">
-        <v>40.28759647165916</v>
+        <v>40.28759647165915</v>
       </c>
     </row>
     <row r="6467" spans="1:2">
@@ -52079,7 +52079,7 @@
         <v>6467</v>
       </c>
       <c r="B6467">
-        <v>44.84778183322969</v>
+        <v>44.84778183322968</v>
       </c>
     </row>
     <row r="6468" spans="1:2">
@@ -52095,7 +52095,7 @@
         <v>6469</v>
       </c>
       <c r="B6469">
-        <v>71.69396818772491</v>
+        <v>71.69396818772489</v>
       </c>
     </row>
     <row r="6470" spans="1:2">
@@ -52111,7 +52111,7 @@
         <v>6471</v>
       </c>
       <c r="B6471">
-        <v>88.523279511814</v>
+        <v>88.52327951181398</v>
       </c>
     </row>
     <row r="6472" spans="1:2">
@@ -52151,7 +52151,7 @@
         <v>6476</v>
       </c>
       <c r="B6476">
-        <v>57.4152541131055</v>
+        <v>57.41525411310549</v>
       </c>
     </row>
     <row r="6477" spans="1:2">
@@ -52159,7 +52159,7 @@
         <v>6477</v>
       </c>
       <c r="B6477">
-        <v>51.9427386081822</v>
+        <v>51.94273860818219</v>
       </c>
     </row>
     <row r="6478" spans="1:2">
@@ -52167,7 +52167,7 @@
         <v>6478</v>
       </c>
       <c r="B6478">
-        <v>44.64116675097344</v>
+        <v>44.64116675097343</v>
       </c>
     </row>
     <row r="6479" spans="1:2">
@@ -52223,7 +52223,7 @@
         <v>6485</v>
       </c>
       <c r="B6485">
-        <v>8.543812068782602</v>
+        <v>8.5438120687826</v>
       </c>
     </row>
     <row r="6486" spans="1:2">
@@ -52239,7 +52239,7 @@
         <v>6487</v>
       </c>
       <c r="B6487">
-        <v>10.98441975744269</v>
+        <v>10.98441975744268</v>
       </c>
     </row>
     <row r="6488" spans="1:2">
@@ -52455,7 +52455,7 @@
         <v>6514</v>
       </c>
       <c r="B6514">
-        <v>57.1453356864984</v>
+        <v>57.14533568649839</v>
       </c>
     </row>
     <row r="6515" spans="1:2">
@@ -52463,7 +52463,7 @@
         <v>6515</v>
       </c>
       <c r="B6515">
-        <v>69.08241216221366</v>
+        <v>69.08241216221364</v>
       </c>
     </row>
     <row r="6516" spans="1:2">
@@ -52519,7 +52519,7 @@
         <v>6522</v>
       </c>
       <c r="B6522">
-        <v>69.07186160482185</v>
+        <v>69.07186160482183</v>
       </c>
     </row>
     <row r="6523" spans="1:2">
@@ -52575,7 +52575,7 @@
         <v>6529</v>
       </c>
       <c r="B6529">
-        <v>22.17129298839264</v>
+        <v>22.17129298839263</v>
       </c>
     </row>
     <row r="6530" spans="1:2">
@@ -52639,7 +52639,7 @@
         <v>6537</v>
       </c>
       <c r="B6537">
-        <v>54.23103727804998</v>
+        <v>54.23103727804997</v>
       </c>
     </row>
     <row r="6538" spans="1:2">
@@ -52695,7 +52695,7 @@
         <v>6544</v>
       </c>
       <c r="B6544">
-        <v>59.59863335113252</v>
+        <v>59.59863335113251</v>
       </c>
     </row>
     <row r="6545" spans="1:2">
@@ -52943,7 +52943,7 @@
         <v>6575</v>
       </c>
       <c r="B6575">
-        <v>8.306952055336502</v>
+        <v>8.306952055336501</v>
       </c>
     </row>
     <row r="6576" spans="1:2">
@@ -52959,7 +52959,7 @@
         <v>6577</v>
       </c>
       <c r="B6577">
-        <v>4.40318720615965</v>
+        <v>4.403187206159649</v>
       </c>
     </row>
     <row r="6578" spans="1:2">
@@ -52975,7 +52975,7 @@
         <v>6579</v>
       </c>
       <c r="B6579">
-        <v>3.623442400697275</v>
+        <v>3.623442400697274</v>
       </c>
     </row>
     <row r="6580" spans="1:2">
@@ -52983,7 +52983,7 @@
         <v>6580</v>
       </c>
       <c r="B6580">
-        <v>3.220147344395398</v>
+        <v>3.220147344395397</v>
       </c>
     </row>
     <row r="6581" spans="1:2">
@@ -53023,7 +53023,7 @@
         <v>6585</v>
       </c>
       <c r="B6585">
-        <v>44.61860028099652</v>
+        <v>44.61860028099651</v>
       </c>
     </row>
     <row r="6586" spans="1:2">
@@ -53031,7 +53031,7 @@
         <v>6586</v>
       </c>
       <c r="B6586">
-        <v>61.26210456657432</v>
+        <v>61.26210456657431</v>
       </c>
     </row>
     <row r="6587" spans="1:2">
@@ -53087,7 +53087,7 @@
         <v>6593</v>
       </c>
       <c r="B6593">
-        <v>93.8047126995301</v>
+        <v>93.80471269953009</v>
       </c>
     </row>
     <row r="6594" spans="1:2">
@@ -53127,7 +53127,7 @@
         <v>6598</v>
       </c>
       <c r="B6598">
-        <v>51.83576767907081</v>
+        <v>51.8357676790708</v>
       </c>
     </row>
     <row r="6599" spans="1:2">
@@ -53159,7 +53159,7 @@
         <v>6602</v>
       </c>
       <c r="B6602">
-        <v>20.33743027107313</v>
+        <v>20.33743027107312</v>
       </c>
     </row>
     <row r="6603" spans="1:2">
@@ -53183,7 +53183,7 @@
         <v>6605</v>
       </c>
       <c r="B6605">
-        <v>8.125482468197397</v>
+        <v>8.125482468197395</v>
       </c>
     </row>
     <row r="6606" spans="1:2">
@@ -53415,7 +53415,7 @@
         <v>6634</v>
       </c>
       <c r="B6634">
-        <v>84.36577375736415</v>
+        <v>84.36577375736414</v>
       </c>
     </row>
     <row r="6635" spans="1:2">
@@ -53559,7 +53559,7 @@
         <v>6652</v>
       </c>
       <c r="B6652">
-        <v>7.124146650403178</v>
+        <v>7.124146650403177</v>
       </c>
     </row>
     <row r="6653" spans="1:2">
@@ -53583,7 +53583,7 @@
         <v>6655</v>
       </c>
       <c r="B6655">
-        <v>5.922819155826458</v>
+        <v>5.922819155826457</v>
       </c>
     </row>
     <row r="6656" spans="1:2">
@@ -53607,7 +53607,7 @@
         <v>6658</v>
       </c>
       <c r="B6658">
-        <v>71.84167599121022</v>
+        <v>71.84167599121021</v>
       </c>
     </row>
     <row r="6659" spans="1:2">
@@ -53663,7 +53663,7 @@
         <v>6665</v>
       </c>
       <c r="B6665">
-        <v>96.39370225506444</v>
+        <v>96.3937022550644</v>
       </c>
     </row>
     <row r="6666" spans="1:2">
@@ -53727,7 +53727,7 @@
         <v>6673</v>
       </c>
       <c r="B6673">
-        <v>41.06423472411172</v>
+        <v>41.06423472411171</v>
       </c>
     </row>
     <row r="6674" spans="1:2">
@@ -53751,7 +53751,7 @@
         <v>6676</v>
       </c>
       <c r="B6676">
-        <v>31.98401473326726</v>
+        <v>31.98401473326725</v>
       </c>
     </row>
     <row r="6677" spans="1:2">
@@ -53855,7 +53855,7 @@
         <v>6689</v>
       </c>
       <c r="B6689">
-        <v>21.65844797783915</v>
+        <v>21.65844797783914</v>
       </c>
     </row>
     <row r="6690" spans="1:2">
@@ -53919,7 +53919,7 @@
         <v>6697</v>
       </c>
       <c r="B6697">
-        <v>3.777421924409946</v>
+        <v>3.777421924409945</v>
       </c>
     </row>
     <row r="6698" spans="1:2">
@@ -53951,7 +53951,7 @@
         <v>6701</v>
       </c>
       <c r="B6701">
-        <v>2.023031280644241</v>
+        <v>2.02303128064424</v>
       </c>
     </row>
     <row r="6702" spans="1:2">
@@ -54023,7 +54023,7 @@
         <v>6710</v>
       </c>
       <c r="B6710">
-        <v>53.29819216199092</v>
+        <v>53.29819216199091</v>
       </c>
     </row>
     <row r="6711" spans="1:2">
@@ -54271,7 +54271,7 @@
         <v>6741</v>
       </c>
       <c r="B6741">
-        <v>5.038858289016108</v>
+        <v>5.038858289016107</v>
       </c>
     </row>
     <row r="6742" spans="1:2">
@@ -54367,7 +54367,7 @@
         <v>6753</v>
       </c>
       <c r="B6753">
-        <v>22.24160073056749</v>
+        <v>22.24160073056748</v>
       </c>
     </row>
     <row r="6754" spans="1:2">
@@ -54391,7 +54391,7 @@
         <v>6756</v>
       </c>
       <c r="B6756">
-        <v>44.90375840161401</v>
+        <v>44.903758401614</v>
       </c>
     </row>
     <row r="6757" spans="1:2">
@@ -54407,7 +54407,7 @@
         <v>6758</v>
       </c>
       <c r="B6758">
-        <v>60.56694006286961</v>
+        <v>60.5669400628696</v>
       </c>
     </row>
     <row r="6759" spans="1:2">
@@ -54503,7 +54503,7 @@
         <v>6770</v>
       </c>
       <c r="B6770">
-        <v>2.167251538769489</v>
+        <v>2.167251538769488</v>
       </c>
     </row>
     <row r="6771" spans="1:2">
@@ -54607,7 +54607,7 @@
         <v>6783</v>
       </c>
       <c r="B6783">
-        <v>85.03075194408675</v>
+        <v>85.03075194408673</v>
       </c>
     </row>
     <row r="6784" spans="1:2">
@@ -54695,7 +54695,7 @@
         <v>6794</v>
       </c>
       <c r="B6794">
-        <v>6.094500170274274</v>
+        <v>6.094500170274273</v>
       </c>
     </row>
     <row r="6795" spans="1:2">
@@ -54775,7 +54775,7 @@
         <v>6804</v>
       </c>
       <c r="B6804">
-        <v>83.53257279444995</v>
+        <v>83.53257279444993</v>
       </c>
     </row>
     <row r="6805" spans="1:2">
@@ -54799,7 +54799,7 @@
         <v>6807</v>
       </c>
       <c r="B6807">
-        <v>90.84733284839848</v>
+        <v>90.84733284839844</v>
       </c>
     </row>
     <row r="6808" spans="1:2">
@@ -54815,7 +54815,7 @@
         <v>6809</v>
       </c>
       <c r="B6809">
-        <v>66.50924844276705</v>
+        <v>66.50924844276703</v>
       </c>
     </row>
     <row r="6810" spans="1:2">
@@ -54951,7 +54951,7 @@
         <v>6826</v>
       </c>
       <c r="B6826">
-        <v>65.18925648463635</v>
+        <v>65.18925648463633</v>
       </c>
     </row>
     <row r="6827" spans="1:2">
@@ -54959,7 +54959,7 @@
         <v>6827</v>
       </c>
       <c r="B6827">
-        <v>80.22614533627265</v>
+        <v>80.22614533627264</v>
       </c>
     </row>
     <row r="6828" spans="1:2">
@@ -54967,7 +54967,7 @@
         <v>6828</v>
       </c>
       <c r="B6828">
-        <v>87.93977507383926</v>
+        <v>87.93977507383924</v>
       </c>
     </row>
     <row r="6829" spans="1:2">
@@ -55071,7 +55071,7 @@
         <v>6841</v>
       </c>
       <c r="B6841">
-        <v>19.36809781070073</v>
+        <v>19.36809781070072</v>
       </c>
     </row>
     <row r="6842" spans="1:2">
@@ -55191,7 +55191,7 @@
         <v>6856</v>
       </c>
       <c r="B6856">
-        <v>95.98516122717052</v>
+        <v>95.98516122717049</v>
       </c>
     </row>
     <row r="6857" spans="1:2">
@@ -55399,7 +55399,7 @@
         <v>6882</v>
       </c>
       <c r="B6882">
-        <v>53.75421069814797</v>
+        <v>53.75421069814796</v>
       </c>
     </row>
     <row r="6883" spans="1:2">
@@ -55407,7 +55407,7 @@
         <v>6883</v>
       </c>
       <c r="B6883">
-        <v>60.91862530926322</v>
+        <v>60.91862530926321</v>
       </c>
     </row>
     <row r="6884" spans="1:2">
@@ -55423,7 +55423,7 @@
         <v>6885</v>
       </c>
       <c r="B6885">
-        <v>56.04954307294363</v>
+        <v>56.04954307294362</v>
       </c>
     </row>
     <row r="6886" spans="1:2">
@@ -55535,7 +55535,7 @@
         <v>6899</v>
       </c>
       <c r="B6899">
-        <v>58.7223509455351</v>
+        <v>58.72235094553509</v>
       </c>
     </row>
     <row r="6900" spans="1:2">
@@ -55543,7 +55543,7 @@
         <v>6900</v>
       </c>
       <c r="B6900">
-        <v>65.06997657190118</v>
+        <v>65.06997657190117</v>
       </c>
     </row>
     <row r="6901" spans="1:2">
@@ -55647,7 +55647,7 @@
         <v>6913</v>
       </c>
       <c r="B6913">
-        <v>6.309731541067166</v>
+        <v>6.309731541067165</v>
       </c>
     </row>
     <row r="6914" spans="1:2">
@@ -55663,7 +55663,7 @@
         <v>6915</v>
       </c>
       <c r="B6915">
-        <v>3.887851091777541</v>
+        <v>3.88785109177754</v>
       </c>
     </row>
     <row r="6916" spans="1:2">
@@ -55679,7 +55679,7 @@
         <v>6917</v>
       </c>
       <c r="B6917">
-        <v>3.8680687966679</v>
+        <v>3.868068796667899</v>
       </c>
     </row>
     <row r="6918" spans="1:2">
@@ -55719,7 +55719,7 @@
         <v>6922</v>
       </c>
       <c r="B6922">
-        <v>39.21759410950659</v>
+        <v>39.21759410950658</v>
       </c>
     </row>
     <row r="6923" spans="1:2">
@@ -55735,7 +55735,7 @@
         <v>6924</v>
       </c>
       <c r="B6924">
-        <v>61.45816909143876</v>
+        <v>61.45816909143875</v>
       </c>
     </row>
     <row r="6925" spans="1:2">
@@ -55759,7 +55759,7 @@
         <v>6927</v>
       </c>
       <c r="B6927">
-        <v>75.61437947189772</v>
+        <v>75.61437947189771</v>
       </c>
     </row>
     <row r="6928" spans="1:2">
@@ -55823,7 +55823,7 @@
         <v>6935</v>
       </c>
       <c r="B6935">
-        <v>8.007550682240073</v>
+        <v>8.007550682240071</v>
       </c>
     </row>
     <row r="6936" spans="1:2">
@@ -55887,7 +55887,7 @@
         <v>6943</v>
       </c>
       <c r="B6943">
-        <v>2.591111389854233</v>
+        <v>2.591111389854232</v>
       </c>
     </row>
     <row r="6944" spans="1:2">
@@ -55975,7 +55975,7 @@
         <v>6954</v>
       </c>
       <c r="B6954">
-        <v>22.96873928459016</v>
+        <v>22.96873928459015</v>
       </c>
     </row>
     <row r="6955" spans="1:2">
@@ -56119,7 +56119,7 @@
         <v>6972</v>
       </c>
       <c r="B6972">
-        <v>45.53561956096787</v>
+        <v>45.53561956096786</v>
       </c>
     </row>
     <row r="6973" spans="1:2">
@@ -56127,7 +56127,7 @@
         <v>6973</v>
       </c>
       <c r="B6973">
-        <v>52.4348048820946</v>
+        <v>52.43480488209459</v>
       </c>
     </row>
     <row r="6974" spans="1:2">
@@ -56151,7 +56151,7 @@
         <v>6976</v>
       </c>
       <c r="B6976">
-        <v>62.18996747497614</v>
+        <v>62.18996747497613</v>
       </c>
     </row>
     <row r="6977" spans="1:2">
@@ -56207,7 +56207,7 @@
         <v>6983</v>
       </c>
       <c r="B6983">
-        <v>5.384008051247575</v>
+        <v>5.384008051247574</v>
       </c>
     </row>
     <row r="6984" spans="1:2">
@@ -56415,7 +56415,7 @@
         <v>7009</v>
       </c>
       <c r="B7009">
-        <v>4.377015962407192</v>
+        <v>4.377015962407191</v>
       </c>
     </row>
     <row r="7010" spans="1:2">
@@ -56551,7 +56551,7 @@
         <v>7026</v>
       </c>
       <c r="B7026">
-        <v>47.8031101870907</v>
+        <v>47.80311018709069</v>
       </c>
     </row>
     <row r="7027" spans="1:2">
@@ -56639,7 +56639,7 @@
         <v>7037</v>
       </c>
       <c r="B7037">
-        <v>3.727365391006588</v>
+        <v>3.727365391006587</v>
       </c>
     </row>
     <row r="7038" spans="1:2">
@@ -56655,7 +56655,7 @@
         <v>7039</v>
       </c>
       <c r="B7039">
-        <v>4.776735552037401</v>
+        <v>4.7767355520374</v>
       </c>
     </row>
     <row r="7040" spans="1:2">
@@ -56743,7 +56743,7 @@
         <v>7050</v>
       </c>
       <c r="B7050">
-        <v>54.36086774817696</v>
+        <v>54.36086774817695</v>
       </c>
     </row>
     <row r="7051" spans="1:2">
@@ -56807,7 +56807,7 @@
         <v>7058</v>
       </c>
       <c r="B7058">
-        <v>7.32179375887639</v>
+        <v>7.321793758876389</v>
       </c>
     </row>
     <row r="7059" spans="1:2">
@@ -56871,7 +56871,7 @@
         <v>7066</v>
       </c>
       <c r="B7066">
-        <v>64.25201530299736</v>
+        <v>64.25201530299735</v>
       </c>
     </row>
     <row r="7067" spans="1:2">
@@ -57063,7 +57063,7 @@
         <v>7090</v>
       </c>
       <c r="B7090">
-        <v>59.08898281490044</v>
+        <v>59.08898281490043</v>
       </c>
     </row>
     <row r="7091" spans="1:2">
@@ -57071,7 +57071,7 @@
         <v>7091</v>
       </c>
       <c r="B7091">
-        <v>81.2296205726491</v>
+        <v>81.22962057264908</v>
       </c>
     </row>
     <row r="7092" spans="1:2">
@@ -57159,7 +57159,7 @@
         <v>7102</v>
       </c>
       <c r="B7102">
-        <v>62.75266386920592</v>
+        <v>62.75266386920591</v>
       </c>
     </row>
     <row r="7103" spans="1:2">
@@ -57247,7 +57247,7 @@
         <v>7113</v>
       </c>
       <c r="B7113">
-        <v>62.00386736542618</v>
+        <v>62.00386736542617</v>
       </c>
     </row>
     <row r="7114" spans="1:2">
@@ -57367,7 +57367,7 @@
         <v>7128</v>
       </c>
       <c r="B7128">
-        <v>53.70585397676885</v>
+        <v>53.70585397676884</v>
       </c>
     </row>
     <row r="7129" spans="1:2">
@@ -57431,7 +57431,7 @@
         <v>7136</v>
       </c>
       <c r="B7136">
-        <v>58.05737275881251</v>
+        <v>58.0573727588125</v>
       </c>
     </row>
     <row r="7137" spans="1:2">
@@ -57463,7 +57463,7 @@
         <v>7140</v>
       </c>
       <c r="B7140">
-        <v>90.97657717644812</v>
+        <v>90.9765771764481</v>
       </c>
     </row>
     <row r="7141" spans="1:2">
@@ -57527,7 +57527,7 @@
         <v>7148</v>
       </c>
       <c r="B7148">
-        <v>53.62203565971171</v>
+        <v>53.6220356597117</v>
       </c>
     </row>
     <row r="7149" spans="1:2">
@@ -57607,7 +57607,7 @@
         <v>7158</v>
       </c>
       <c r="B7158">
-        <v>3.491120826741678</v>
+        <v>3.491120826741677</v>
       </c>
     </row>
     <row r="7159" spans="1:2">
@@ -57615,7 +57615,7 @@
         <v>7159</v>
       </c>
       <c r="B7159">
-        <v>3.898987791246672</v>
+        <v>3.898987791246671</v>
       </c>
     </row>
     <row r="7160" spans="1:2">
@@ -57631,7 +57631,7 @@
         <v>7161</v>
       </c>
       <c r="B7161">
-        <v>27.38411824595812</v>
+        <v>27.38411824595811</v>
       </c>
     </row>
     <row r="7162" spans="1:2">
@@ -57679,7 +57679,7 @@
         <v>7167</v>
       </c>
       <c r="B7167">
-        <v>46.18770262198936</v>
+        <v>46.18770262198935</v>
       </c>
     </row>
     <row r="7168" spans="1:2">
@@ -57751,7 +57751,7 @@
         <v>7176</v>
       </c>
       <c r="B7176">
-        <v>3.335060498654512</v>
+        <v>3.335060498654511</v>
       </c>
     </row>
     <row r="7177" spans="1:2">
@@ -57815,7 +57815,7 @@
         <v>7184</v>
       </c>
       <c r="B7184">
-        <v>3.729651345108147</v>
+        <v>3.729651345108146</v>
       </c>
     </row>
     <row r="7185" spans="1:2">
@@ -57959,7 +57959,7 @@
         <v>7202</v>
       </c>
       <c r="B7202">
-        <v>1.825768095231676</v>
+        <v>1.825768095231675</v>
       </c>
     </row>
     <row r="7203" spans="1:2">
@@ -58063,7 +58063,7 @@
         <v>7215</v>
       </c>
       <c r="B7215">
-        <v>46.05259687316648</v>
+        <v>46.05259687316647</v>
       </c>
     </row>
     <row r="7216" spans="1:2">
@@ -58071,7 +58071,7 @@
         <v>7216</v>
       </c>
       <c r="B7216">
-        <v>37.91284184538628</v>
+        <v>37.91284184538627</v>
       </c>
     </row>
     <row r="7217" spans="1:2">
@@ -58111,7 +58111,7 @@
         <v>7221</v>
       </c>
       <c r="B7221">
-        <v>4.540109995422231</v>
+        <v>4.54010999542223</v>
       </c>
     </row>
     <row r="7222" spans="1:2">
@@ -58391,7 +58391,7 @@
         <v>7256</v>
       </c>
       <c r="B7256">
-        <v>2.798854795609328</v>
+        <v>2.798854795609327</v>
       </c>
     </row>
     <row r="7257" spans="1:2">
@@ -58407,7 +58407,7 @@
         <v>7258</v>
       </c>
       <c r="B7258">
-        <v>34.75119148030768</v>
+        <v>34.75119148030767</v>
       </c>
     </row>
     <row r="7259" spans="1:2">
@@ -58487,7 +58487,7 @@
         <v>7268</v>
       </c>
       <c r="B7268">
-        <v>29.47210286090087</v>
+        <v>29.47210286090086</v>
       </c>
     </row>
     <row r="7269" spans="1:2">
@@ -58631,7 +58631,7 @@
         <v>7286</v>
       </c>
       <c r="B7286">
-        <v>56.93637603593286</v>
+        <v>56.93637603593285</v>
       </c>
     </row>
     <row r="7287" spans="1:2">
@@ -58679,7 +58679,7 @@
         <v>7292</v>
       </c>
       <c r="B7292">
-        <v>24.86611049598757</v>
+        <v>24.86611049598756</v>
       </c>
     </row>
     <row r="7293" spans="1:2">
@@ -58751,7 +58751,7 @@
         <v>7301</v>
       </c>
       <c r="B7301">
-        <v>1.759290791532123</v>
+        <v>1.759290791532122</v>
       </c>
     </row>
     <row r="7302" spans="1:2">
@@ -58775,7 +58775,7 @@
         <v>7304</v>
       </c>
       <c r="B7304">
-        <v>3.257220830786058</v>
+        <v>3.257220830786057</v>
       </c>
     </row>
     <row r="7305" spans="1:2">
@@ -58823,7 +58823,7 @@
         <v>7310</v>
       </c>
       <c r="B7310">
-        <v>52.48286853243506</v>
+        <v>52.48286853243505</v>
       </c>
     </row>
     <row r="7311" spans="1:2">
@@ -59031,7 +59031,7 @@
         <v>7336</v>
       </c>
       <c r="B7336">
-        <v>60.73252519971327</v>
+        <v>60.73252519971326</v>
       </c>
     </row>
     <row r="7337" spans="1:2">
@@ -59039,7 +59039,7 @@
         <v>7337</v>
       </c>
       <c r="B7337">
-        <v>43.98937676099061</v>
+        <v>43.9893767609906</v>
       </c>
     </row>
     <row r="7338" spans="1:2">
@@ -59175,7 +59175,7 @@
         <v>7354</v>
       </c>
       <c r="B7354">
-        <v>35.69136337233328</v>
+        <v>35.69136337233327</v>
       </c>
     </row>
     <row r="7355" spans="1:2">
@@ -59319,7 +59319,7 @@
         <v>7372</v>
       </c>
       <c r="B7372">
-        <v>3.288198439572562</v>
+        <v>3.288198439572561</v>
       </c>
     </row>
     <row r="7373" spans="1:2">
@@ -59391,7 +59391,7 @@
         <v>7381</v>
       </c>
       <c r="B7381">
-        <v>54.31485559510713</v>
+        <v>54.31485559510712</v>
       </c>
     </row>
     <row r="7382" spans="1:2">
@@ -59399,7 +59399,7 @@
         <v>7382</v>
       </c>
       <c r="B7382">
-        <v>43.72414747100209</v>
+        <v>43.72414747100208</v>
       </c>
     </row>
     <row r="7383" spans="1:2">
@@ -59431,7 +59431,7 @@
         <v>7386</v>
       </c>
       <c r="B7386">
-        <v>5.963262959161724</v>
+        <v>5.963262959161723</v>
       </c>
     </row>
     <row r="7387" spans="1:2">
@@ -59639,7 +59639,7 @@
         <v>7412</v>
       </c>
       <c r="B7412">
-        <v>8.18096081581599</v>
+        <v>8.180960815815988</v>
       </c>
     </row>
     <row r="7413" spans="1:2">
@@ -59671,7 +59671,7 @@
         <v>7416</v>
       </c>
       <c r="B7416">
-        <v>3.056994697172627</v>
+        <v>3.056994697172626</v>
       </c>
     </row>
     <row r="7417" spans="1:2">
@@ -59719,7 +59719,7 @@
         <v>7422</v>
       </c>
       <c r="B7422">
-        <v>1.281664127694569</v>
+        <v>1.281664127694568</v>
       </c>
     </row>
     <row r="7423" spans="1:2">
@@ -59831,7 +59831,7 @@
         <v>7436</v>
       </c>
       <c r="B7436">
-        <v>7.083409776029251</v>
+        <v>7.08340977602925</v>
       </c>
     </row>
     <row r="7437" spans="1:2">
@@ -59847,7 +59847,7 @@
         <v>7438</v>
       </c>
       <c r="B7438">
-        <v>4.539729003071972</v>
+        <v>4.539729003071971</v>
       </c>
     </row>
     <row r="7439" spans="1:2">
@@ -59863,7 +59863,7 @@
         <v>7440</v>
       </c>
       <c r="B7440">
-        <v>2.554761788929066</v>
+        <v>2.554761788929065</v>
       </c>
     </row>
     <row r="7441" spans="1:2">
@@ -60055,7 +60055,7 @@
         <v>7464</v>
       </c>
       <c r="B7464">
-        <v>5.402852519033499</v>
+        <v>5.402852519033498</v>
       </c>
     </row>
     <row r="7465" spans="1:2">
@@ -60111,7 +60111,7 @@
         <v>7471</v>
       </c>
       <c r="B7471">
-        <v>2.256245490369393</v>
+        <v>2.256245490369392</v>
       </c>
     </row>
     <row r="7472" spans="1:2">
@@ -60159,7 +60159,7 @@
         <v>7477</v>
       </c>
       <c r="B7477">
-        <v>34.68525049660888</v>
+        <v>34.68525049660887</v>
       </c>
     </row>
     <row r="7478" spans="1:2">
@@ -60375,7 +60375,7 @@
         <v>7504</v>
       </c>
       <c r="B7504">
-        <v>7.817963027330047</v>
+        <v>7.817963027330046</v>
       </c>
     </row>
     <row r="7505" spans="1:2">
@@ -60391,7 +60391,7 @@
         <v>7506</v>
       </c>
       <c r="B7506">
-        <v>4.647461916883882</v>
+        <v>4.647461916883881</v>
       </c>
     </row>
     <row r="7507" spans="1:2">
@@ -60567,7 +60567,7 @@
         <v>7528</v>
       </c>
       <c r="B7528">
-        <v>29.82496039144913</v>
+        <v>29.82496039144912</v>
       </c>
     </row>
     <row r="7529" spans="1:2">
@@ -60615,7 +60615,7 @@
         <v>7534</v>
       </c>
       <c r="B7534">
-        <v>9.695932935968084</v>
+        <v>9.695932935968081</v>
       </c>
     </row>
     <row r="7535" spans="1:2">
@@ -60623,7 +60623,7 @@
         <v>7535</v>
       </c>
       <c r="B7535">
-        <v>7.480227962376713</v>
+        <v>7.480227962376712</v>
       </c>
     </row>
     <row r="7536" spans="1:2">
@@ -60639,7 +60639,7 @@
         <v>7537</v>
       </c>
       <c r="B7537">
-        <v>3.070270815223986</v>
+        <v>3.070270815223985</v>
       </c>
     </row>
     <row r="7538" spans="1:2">
@@ -60831,7 +60831,7 @@
         <v>7561</v>
       </c>
       <c r="B7561">
-        <v>2.761201028562118</v>
+        <v>2.761201028562117</v>
       </c>
     </row>
     <row r="7562" spans="1:2">
@@ -60943,7 +60943,7 @@
         <v>7575</v>
       </c>
       <c r="B7575">
-        <v>47.62990520324184</v>
+        <v>47.62990520324183</v>
       </c>
     </row>
     <row r="7576" spans="1:2">
@@ -61135,7 +61135,7 @@
         <v>7599</v>
       </c>
       <c r="B7599">
-        <v>9.813366501159685</v>
+        <v>9.813366501159679</v>
       </c>
     </row>
     <row r="7600" spans="1:2">
@@ -61167,7 +61167,7 @@
         <v>7603</v>
       </c>
       <c r="B7603">
-        <v>4.728056452515752</v>
+        <v>4.728056452515751</v>
       </c>
     </row>
     <row r="7604" spans="1:2">
@@ -61175,7 +61175,7 @@
         <v>7604</v>
       </c>
       <c r="B7604">
-        <v>6.747579672827216</v>
+        <v>6.747579672827215</v>
       </c>
     </row>
     <row r="7605" spans="1:2">
@@ -61271,7 +61271,7 @@
         <v>7616</v>
       </c>
       <c r="B7616">
-        <v>2.599563558609226</v>
+        <v>2.599563558609225</v>
       </c>
     </row>
     <row r="7617" spans="1:2">
@@ -61287,7 +61287,7 @@
         <v>7618</v>
       </c>
       <c r="B7618">
-        <v>1.896272195002436</v>
+        <v>1.896272195002435</v>
       </c>
     </row>
     <row r="7619" spans="1:2">
@@ -61351,7 +61351,7 @@
         <v>7626</v>
       </c>
       <c r="B7626">
-        <v>2.44128761346978</v>
+        <v>2.441287613469779</v>
       </c>
     </row>
     <row r="7627" spans="1:2">
@@ -61367,7 +61367,7 @@
         <v>7628</v>
       </c>
       <c r="B7628">
-        <v>4.066829575088025</v>
+        <v>4.066829575088024</v>
       </c>
     </row>
     <row r="7629" spans="1:2">
@@ -61375,7 +61375,7 @@
         <v>7629</v>
       </c>
       <c r="B7629">
-        <v>5.094717628984961</v>
+        <v>5.09471762898496</v>
       </c>
     </row>
     <row r="7630" spans="1:2">
@@ -61463,7 +61463,7 @@
         <v>7640</v>
       </c>
       <c r="B7640">
-        <v>1.646983038806709</v>
+        <v>1.646983038806708</v>
       </c>
     </row>
     <row r="7641" spans="1:2">
@@ -61503,7 +61503,7 @@
         <v>7645</v>
       </c>
       <c r="B7645">
-        <v>16.14247003788237</v>
+        <v>16.14247003788236</v>
       </c>
     </row>
     <row r="7646" spans="1:2">
@@ -61543,7 +61543,7 @@
         <v>7650</v>
       </c>
       <c r="B7650">
-        <v>2.68929311851617</v>
+        <v>2.689293118516169</v>
       </c>
     </row>
     <row r="7651" spans="1:2">
@@ -61639,7 +61639,7 @@
         <v>7662</v>
       </c>
       <c r="B7662">
-        <v>1.029570281658853</v>
+        <v>1.029570281658852</v>
       </c>
     </row>
     <row r="7663" spans="1:2">
@@ -61695,7 +61695,7 @@
         <v>7669</v>
       </c>
       <c r="B7669">
-        <v>18.20123547027059</v>
+        <v>18.20123547027058</v>
       </c>
     </row>
     <row r="7670" spans="1:2">
@@ -61855,7 +61855,7 @@
         <v>7689</v>
       </c>
       <c r="B7689">
-        <v>11.00936010283277</v>
+        <v>11.00936010283276</v>
       </c>
     </row>
     <row r="7690" spans="1:2">
@@ -61895,7 +61895,7 @@
         <v>7694</v>
       </c>
       <c r="B7694">
-        <v>43.02868989625872</v>
+        <v>43.02868989625871</v>
       </c>
     </row>
     <row r="7695" spans="1:2">
@@ -62055,7 +62055,7 @@
         <v>7714</v>
       </c>
       <c r="B7714">
-        <v>17.59346475029469</v>
+        <v>17.59346475029468</v>
       </c>
     </row>
     <row r="7715" spans="1:2">
@@ -62079,7 +62079,7 @@
         <v>7717</v>
       </c>
       <c r="B7717">
-        <v>32.00247820870293</v>
+        <v>32.00247820870292</v>
       </c>
     </row>
     <row r="7718" spans="1:2">
@@ -62335,7 +62335,7 @@
         <v>7749</v>
       </c>
       <c r="B7749">
-        <v>2.799687117359126</v>
+        <v>2.799687117359125</v>
       </c>
     </row>
     <row r="7750" spans="1:2">
@@ -62391,7 +62391,7 @@
         <v>7756</v>
       </c>
       <c r="B7756">
-        <v>0.9507341722589506</v>
+        <v>0.9507341722589504</v>
       </c>
     </row>
     <row r="7757" spans="1:2">
@@ -62439,7 +62439,7 @@
         <v>7762</v>
       </c>
       <c r="B7762">
-        <v>6.652976341547334</v>
+        <v>6.652976341547333</v>
       </c>
     </row>
     <row r="7763" spans="1:2">
@@ -62559,7 +62559,7 @@
         <v>7777</v>
       </c>
       <c r="B7777">
-        <v>1.496250742202406</v>
+        <v>1.496250742202405</v>
       </c>
     </row>
     <row r="7778" spans="1:2">
@@ -62639,7 +62639,7 @@
         <v>7787</v>
       </c>
       <c r="B7787">
-        <v>0.9069083291375331</v>
+        <v>0.9069083291375328</v>
       </c>
     </row>
     <row r="7788" spans="1:2">
@@ -62663,7 +62663,7 @@
         <v>7790</v>
       </c>
       <c r="B7790">
-        <v>3.347574632005351</v>
+        <v>3.34757463200535</v>
       </c>
     </row>
     <row r="7791" spans="1:2">
@@ -62687,7 +62687,7 @@
         <v>7793</v>
       </c>
       <c r="B7793">
-        <v>0.8767161507346413</v>
+        <v>0.8767161507346412</v>
       </c>
     </row>
     <row r="7794" spans="1:2">
@@ -62975,7 +62975,7 @@
         <v>7829</v>
       </c>
       <c r="B7829">
-        <v>0.7469149877115314</v>
+        <v>0.7469149877115313</v>
       </c>
     </row>
     <row r="7830" spans="1:2">
@@ -62983,7 +62983,7 @@
         <v>7830</v>
       </c>
       <c r="B7830">
-        <v>0.8564033970450234</v>
+        <v>0.8564033970450233</v>
       </c>
     </row>
     <row r="7831" spans="1:2">
@@ -63119,7 +63119,7 @@
         <v>7847</v>
       </c>
       <c r="B7847">
-        <v>2.069887478305417</v>
+        <v>2.069887478305416</v>
       </c>
     </row>
     <row r="7848" spans="1:2">
@@ -63143,7 +63143,7 @@
         <v>7850</v>
       </c>
       <c r="B7850">
-        <v>0.8788291929233896</v>
+        <v>0.8788291929233895</v>
       </c>
     </row>
     <row r="7851" spans="1:2">
@@ -63199,7 +63199,7 @@
         <v>7857</v>
       </c>
       <c r="B7857">
-        <v>1.042746755557067</v>
+        <v>1.042746755557066</v>
       </c>
     </row>
     <row r="7858" spans="1:2">
@@ -63263,7 +63263,7 @@
         <v>7865</v>
       </c>
       <c r="B7865">
-        <v>6.564761958910269</v>
+        <v>6.564761958910268</v>
       </c>
     </row>
     <row r="7866" spans="1:2">
@@ -63295,7 +63295,7 @@
         <v>7869</v>
       </c>
       <c r="B7869">
-        <v>2.239461311985258</v>
+        <v>2.239461311985257</v>
       </c>
     </row>
     <row r="7870" spans="1:2">
@@ -63799,7 +63799,7 @@
         <v>7932</v>
       </c>
       <c r="B7932">
-        <v>32.93503025372333</v>
+        <v>32.93503025372332</v>
       </c>
     </row>
     <row r="7933" spans="1:2">
@@ -63855,7 +63855,7 @@
         <v>7939</v>
       </c>
       <c r="B7939">
-        <v>5.954969048767608</v>
+        <v>5.954969048767607</v>
       </c>
     </row>
     <row r="7940" spans="1:2">
@@ -64007,7 +64007,7 @@
         <v>7958</v>
       </c>
       <c r="B7958">
-        <v>40.63635100766616</v>
+        <v>40.63635100766615</v>
       </c>
     </row>
     <row r="7959" spans="1:2">
@@ -64071,7 +64071,7 @@
         <v>7966</v>
       </c>
       <c r="B7966">
-        <v>5.454139950799235</v>
+        <v>5.454139950799234</v>
       </c>
     </row>
     <row r="7967" spans="1:2">
@@ -64391,7 +64391,7 @@
         <v>8006</v>
       </c>
       <c r="B8006">
-        <v>2.459663167593846</v>
+        <v>2.459663167593845</v>
       </c>
     </row>
     <row r="8007" spans="1:2">
@@ -64455,7 +64455,7 @@
         <v>8014</v>
       </c>
       <c r="B8014">
-        <v>4.120930488824909</v>
+        <v>4.120930488824908</v>
       </c>
     </row>
     <row r="8015" spans="1:2">
@@ -64471,7 +64471,7 @@
         <v>8016</v>
       </c>
       <c r="B8016">
-        <v>3.163291562895097</v>
+        <v>3.163291562895096</v>
       </c>
     </row>
     <row r="8017" spans="1:2">
@@ -64487,7 +64487,7 @@
         <v>8018</v>
       </c>
       <c r="B8018">
-        <v>2.463631349457321</v>
+        <v>2.46363134945732</v>
       </c>
     </row>
     <row r="8019" spans="1:2">
@@ -64519,7 +64519,7 @@
         <v>8022</v>
       </c>
       <c r="B8022">
-        <v>2.151918062026727</v>
+        <v>2.151918062026726</v>
       </c>
     </row>
     <row r="8023" spans="1:2">
@@ -64567,7 +64567,7 @@
         <v>8028</v>
       </c>
       <c r="B8028">
-        <v>53.96610105910013</v>
+        <v>53.96610105910012</v>
       </c>
     </row>
     <row r="8029" spans="1:2">
@@ -64575,7 +64575,7 @@
         <v>8029</v>
       </c>
       <c r="B8029">
-        <v>64.14738894219526</v>
+        <v>64.14738894219525</v>
       </c>
     </row>
     <row r="8030" spans="1:2">
@@ -64583,7 +64583,7 @@
         <v>8030</v>
       </c>
       <c r="B8030">
-        <v>70.30510453550879</v>
+        <v>70.30510453550878</v>
       </c>
     </row>
     <row r="8031" spans="1:2">
@@ -64623,7 +64623,7 @@
         <v>8035</v>
       </c>
       <c r="B8035">
-        <v>17.38087101884975</v>
+        <v>17.38087101884974</v>
       </c>
     </row>
     <row r="8036" spans="1:2">
@@ -64783,7 +64783,7 @@
         <v>8055</v>
       </c>
       <c r="B8055">
-        <v>59.56551632376379</v>
+        <v>59.56551632376378</v>
       </c>
     </row>
     <row r="8056" spans="1:2">
@@ -64991,7 +64991,7 @@
         <v>8081</v>
       </c>
       <c r="B8081">
-        <v>32.5144733132443</v>
+        <v>32.51447331324429</v>
       </c>
     </row>
     <row r="8082" spans="1:2">
@@ -65119,7 +65119,7 @@
         <v>8097</v>
       </c>
       <c r="B8097">
-        <v>11.02172770066428</v>
+        <v>11.02172770066427</v>
       </c>
     </row>
     <row r="8098" spans="1:2">
@@ -65199,7 +65199,7 @@
         <v>8107</v>
       </c>
       <c r="B8107">
-        <v>34.76936188470469</v>
+        <v>34.76936188470468</v>
       </c>
     </row>
     <row r="8108" spans="1:2">
@@ -65279,7 +65279,7 @@
         <v>8117</v>
       </c>
       <c r="B8117">
-        <v>5.011749217939934</v>
+        <v>5.011749217939933</v>
       </c>
     </row>
     <row r="8118" spans="1:2">
@@ -65359,7 +65359,7 @@
         <v>8127</v>
       </c>
       <c r="B8127">
-        <v>74.68182742687732</v>
+        <v>74.68182742687731</v>
       </c>
     </row>
     <row r="8128" spans="1:2">
@@ -65439,7 +65439,7 @@
         <v>8137</v>
       </c>
       <c r="B8137">
-        <v>11.7017404316702</v>
+        <v>11.70174043167019</v>
       </c>
     </row>
     <row r="8138" spans="1:2">
@@ -65479,7 +65479,7 @@
         <v>8142</v>
       </c>
       <c r="B8142">
-        <v>3.821148123378217</v>
+        <v>3.821148123378218</v>
       </c>
     </row>
     <row r="8143" spans="1:2">
@@ -65551,7 +65551,7 @@
         <v>8151</v>
       </c>
       <c r="B8151">
-        <v>94.33517127950714</v>
+        <v>94.33517127950712</v>
       </c>
     </row>
     <row r="8152" spans="1:2">
@@ -65591,7 +65591,7 @@
         <v>8156</v>
       </c>
       <c r="B8156">
-        <v>44.34604421504147</v>
+        <v>44.34604421504146</v>
       </c>
     </row>
     <row r="8157" spans="1:2">
@@ -65623,7 +65623,7 @@
         <v>8160</v>
       </c>
       <c r="B8160">
-        <v>33.81365722763004</v>
+        <v>33.81365722763003</v>
       </c>
     </row>
     <row r="8161" spans="1:2">
@@ -65759,7 +65759,7 @@
         <v>8177</v>
       </c>
       <c r="B8177">
-        <v>41.64773916208646</v>
+        <v>41.64773916208645</v>
       </c>
     </row>
     <row r="8178" spans="1:2">
@@ -65775,7 +65775,7 @@
         <v>8179</v>
       </c>
       <c r="B8179">
-        <v>38.12707677464772</v>
+        <v>38.12707677464771</v>
       </c>
     </row>
     <row r="8180" spans="1:2">
@@ -65799,7 +65799,7 @@
         <v>8182</v>
       </c>
       <c r="B8182">
-        <v>42.89094650808789</v>
+        <v>42.89094650808788</v>
       </c>
     </row>
     <row r="8183" spans="1:2">
@@ -65895,7 +65895,7 @@
         <v>8194</v>
       </c>
       <c r="B8194">
-        <v>3.426029749054993</v>
+        <v>3.426029749054992</v>
       </c>
     </row>
     <row r="8195" spans="1:2">
@@ -65951,7 +65951,7 @@
         <v>8201</v>
       </c>
       <c r="B8201">
-        <v>1.900281406811323</v>
+        <v>1.900281406811322</v>
       </c>
     </row>
     <row r="8202" spans="1:2">
@@ -66127,7 +66127,7 @@
         <v>8223</v>
       </c>
       <c r="B8223">
-        <v>41.58179817838766</v>
+        <v>41.58179817838765</v>
       </c>
     </row>
     <row r="8224" spans="1:2">
@@ -66271,7 +66271,7 @@
         <v>8241</v>
       </c>
       <c r="B8241">
-        <v>1.431016059706777</v>
+        <v>1.431016059706776</v>
       </c>
     </row>
     <row r="8242" spans="1:2">
@@ -66295,7 +66295,7 @@
         <v>8244</v>
       </c>
       <c r="B8244">
-        <v>23.62102749533871</v>
+        <v>23.6210274953387</v>
       </c>
     </row>
     <row r="8245" spans="1:2">
@@ -66375,7 +66375,7 @@
         <v>8254</v>
       </c>
       <c r="B8254">
-        <v>7.149262838416456</v>
+        <v>7.149262838416455</v>
       </c>
     </row>
     <row r="8255" spans="1:2">
@@ -66511,7 +66511,7 @@
         <v>8271</v>
       </c>
       <c r="B8271">
-        <v>41.19699590462531</v>
+        <v>41.1969959046253</v>
       </c>
     </row>
     <row r="8272" spans="1:2">
@@ -66559,7 +66559,7 @@
         <v>8277</v>
       </c>
       <c r="B8277">
-        <v>5.993625118767039</v>
+        <v>5.993625118767038</v>
       </c>
     </row>
     <row r="8278" spans="1:2">
@@ -66567,7 +66567,7 @@
         <v>8278</v>
       </c>
       <c r="B8278">
-        <v>4.703467792372065</v>
+        <v>4.703467792372064</v>
       </c>
     </row>
     <row r="8279" spans="1:2">
@@ -66687,7 +66687,7 @@
         <v>8293</v>
       </c>
       <c r="B8293">
-        <v>0.973499930542164</v>
+        <v>0.9734999305421638</v>
       </c>
     </row>
     <row r="8294" spans="1:2">
@@ -66767,7 +66767,7 @@
         <v>8303</v>
       </c>
       <c r="B8303">
-        <v>3.930287778175704</v>
+        <v>3.930287778175703</v>
       </c>
     </row>
     <row r="8304" spans="1:2">
@@ -66919,7 +66919,7 @@
         <v>8322</v>
       </c>
       <c r="B8322">
-        <v>1.259138687663058</v>
+        <v>1.259138687663057</v>
       </c>
     </row>
     <row r="8323" spans="1:2">
@@ -67071,7 +67071,7 @@
         <v>8341</v>
       </c>
       <c r="B8341">
-        <v>36.07089036739972</v>
+        <v>36.07089036739971</v>
       </c>
     </row>
     <row r="8342" spans="1:2">
@@ -67191,7 +67191,7 @@
         <v>8356</v>
       </c>
       <c r="B8356">
-        <v>0.847710910038328</v>
+        <v>0.8477109100383279</v>
       </c>
     </row>
     <row r="8357" spans="1:2">
@@ -67207,7 +67207,7 @@
         <v>8358</v>
       </c>
       <c r="B8358">
-        <v>0.7862480518102706</v>
+        <v>0.7862480518102705</v>
       </c>
     </row>
     <row r="8359" spans="1:2">
@@ -67255,7 +67255,7 @@
         <v>8364</v>
       </c>
       <c r="B8364">
-        <v>31.95968983705837</v>
+        <v>31.95968983705836</v>
       </c>
     </row>
     <row r="8365" spans="1:2">
@@ -67327,7 +67327,7 @@
         <v>8373</v>
       </c>
       <c r="B8373">
-        <v>4.376722891368531</v>
+        <v>4.37672289136853</v>
       </c>
     </row>
     <row r="8374" spans="1:2">
@@ -67367,7 +67367,7 @@
         <v>8378</v>
       </c>
       <c r="B8378">
-        <v>1.600589893386618</v>
+        <v>1.600589893386617</v>
       </c>
     </row>
     <row r="8379" spans="1:2">
@@ -67871,7 +67871,7 @@
         <v>8441</v>
       </c>
       <c r="B8441">
-        <v>7.152486619841731</v>
+        <v>7.15248661984173</v>
       </c>
     </row>
     <row r="8442" spans="1:2">
@@ -68063,7 +68063,7 @@
         <v>8465</v>
       </c>
       <c r="B8465">
-        <v>3.843421522316481</v>
+        <v>3.84342152231648</v>
       </c>
     </row>
     <row r="8466" spans="1:2">
@@ -68119,7 +68119,7 @@
         <v>8472</v>
       </c>
       <c r="B8472">
-        <v>3.779561342992174</v>
+        <v>3.779561342992173</v>
       </c>
     </row>
     <row r="8473" spans="1:2">
@@ -68175,7 +68175,7 @@
         <v>8479</v>
       </c>
       <c r="B8479">
-        <v>2.089101215600055</v>
+        <v>2.089101215600054</v>
       </c>
     </row>
     <row r="8480" spans="1:2">
@@ -68263,7 +68263,7 @@
         <v>8490</v>
       </c>
       <c r="B8490">
-        <v>8.914546932689204</v>
+        <v>8.914546932689202</v>
       </c>
     </row>
     <row r="8491" spans="1:2">
@@ -68407,7 +68407,7 @@
         <v>8508</v>
       </c>
       <c r="B8508">
-        <v>1.157026876372672</v>
+        <v>1.157026876372671</v>
       </c>
     </row>
     <row r="8509" spans="1:2">
@@ -68487,7 +68487,7 @@
         <v>8518</v>
       </c>
       <c r="B8518">
-        <v>9.717268507582627</v>
+        <v>9.717268507582626</v>
       </c>
     </row>
     <row r="8519" spans="1:2">
@@ -68503,7 +68503,7 @@
         <v>8520</v>
       </c>
       <c r="B8520">
-        <v>5.666059618855254</v>
+        <v>5.666059618855253</v>
       </c>
     </row>
     <row r="8521" spans="1:2">
@@ -68551,7 +68551,7 @@
         <v>8526</v>
       </c>
       <c r="B8526">
-        <v>3.793687367055651</v>
+        <v>3.79368736705565</v>
       </c>
     </row>
     <row r="8527" spans="1:2">
@@ -68719,7 +68719,7 @@
         <v>8547</v>
       </c>
       <c r="B8547">
-        <v>0.7978272885477804</v>
+        <v>0.7978272885477803</v>
       </c>
     </row>
     <row r="8548" spans="1:2">
@@ -68751,7 +68751,7 @@
         <v>8551</v>
       </c>
       <c r="B8551">
-        <v>0.7636141754944549</v>
+        <v>0.7636141754944548</v>
       </c>
     </row>
     <row r="8552" spans="1:2">
@@ -68815,7 +68815,7 @@
         <v>8559</v>
       </c>
       <c r="B8559">
-        <v>0.56487977346781</v>
+        <v>0.5648797734678099</v>
       </c>
     </row>
     <row r="8560" spans="1:2">
@@ -68839,7 +68839,7 @@
         <v>8562</v>
       </c>
       <c r="B8562">
-        <v>0.5096182984178268</v>
+        <v>0.5096182984178267</v>
       </c>
     </row>
     <row r="8563" spans="1:2">
@@ -69031,7 +69031,7 @@
         <v>8586</v>
       </c>
       <c r="B8586">
-        <v>0.7187039695299904</v>
+        <v>0.7187039695299903</v>
       </c>
     </row>
     <row r="8587" spans="1:2">
@@ -69159,7 +69159,7 @@
         <v>8602</v>
       </c>
       <c r="B8602">
-        <v>6.39985088545553</v>
+        <v>6.399850885455529</v>
       </c>
     </row>
     <row r="8603" spans="1:2">
@@ -69175,7 +69175,7 @@
         <v>8604</v>
       </c>
       <c r="B8604">
-        <v>20.40498314548457</v>
+        <v>20.40498314548456</v>
       </c>
     </row>
     <row r="8605" spans="1:2">
@@ -69311,7 +69311,7 @@
         <v>8621</v>
       </c>
       <c r="B8621">
-        <v>0.5735986368679851</v>
+        <v>0.573598636867985</v>
       </c>
     </row>
     <row r="8622" spans="1:2">
@@ -69359,7 +69359,7 @@
         <v>8627</v>
       </c>
       <c r="B8627">
-        <v>0.6588500713041838</v>
+        <v>0.6588500713041837</v>
       </c>
     </row>
     <row r="8628" spans="1:2">
@@ -69383,7 +69383,7 @@
         <v>8630</v>
       </c>
       <c r="B8630">
-        <v>0.4880218935788722</v>
+        <v>0.4880218935788721</v>
       </c>
     </row>
     <row r="8631" spans="1:2">
@@ -69519,7 +69519,7 @@
         <v>8647</v>
       </c>
       <c r="B8647">
-        <v>0.8050690739131022</v>
+        <v>0.8050690739131021</v>
       </c>
     </row>
     <row r="8648" spans="1:2">
@@ -69551,7 +69551,7 @@
         <v>8651</v>
       </c>
       <c r="B8651">
-        <v>12.32926413965187</v>
+        <v>12.32926413965186</v>
       </c>
     </row>
     <row r="8652" spans="1:2">
@@ -69559,7 +69559,7 @@
         <v>8652</v>
       </c>
       <c r="B8652">
-        <v>21.32153351179407</v>
+        <v>21.32153351179406</v>
       </c>
     </row>
     <row r="8653" spans="1:2">
@@ -69583,7 +69583,7 @@
         <v>8655</v>
       </c>
       <c r="B8655">
-        <v>5.306549375729381</v>
+        <v>5.30654937572938</v>
       </c>
     </row>
     <row r="8656" spans="1:2">
@@ -69607,7 +69607,7 @@
         <v>8658</v>
       </c>
       <c r="B8658">
-        <v>1.002792380856366</v>
+        <v>1.002792380856365</v>
       </c>
     </row>
     <row r="8659" spans="1:2">
@@ -69855,7 +69855,7 @@
         <v>8689</v>
       </c>
       <c r="B8689">
-        <v>1.689692281270827</v>
+        <v>1.689692281270826</v>
       </c>
     </row>
     <row r="8690" spans="1:2">
@@ -69863,7 +69863,7 @@
         <v>8690</v>
       </c>
       <c r="B8690">
-        <v>1.500602847126527</v>
+        <v>1.500602847126526</v>
       </c>
     </row>
     <row r="8691" spans="1:2">
@@ -70119,7 +70119,7 @@
         <v>8722</v>
       </c>
       <c r="B8722">
-        <v>1.079064118667981</v>
+        <v>1.07906411866798</v>
       </c>
     </row>
     <row r="8723" spans="1:2">
@@ -70191,7 +70191,7 @@
         <v>8731</v>
       </c>
       <c r="B8731">
-        <v>0.9368015750809904</v>
+        <v>0.9368015750809902</v>
       </c>
     </row>
     <row r="8732" spans="1:2">
@@ -70231,7 +70231,7 @@
         <v>8736</v>
       </c>
       <c r="B8736">
-        <v>1.036091112269068</v>
+        <v>1.036091112269067</v>
       </c>
     </row>
     <row r="8737" spans="1:2">
@@ -70255,7 +70255,7 @@
         <v>8739</v>
       </c>
       <c r="B8739">
-        <v>0.7268747900878686</v>
+        <v>0.7268747900878685</v>
       </c>
     </row>
     <row r="8740" spans="1:2">
@@ -70287,7 +70287,7 @@
         <v>8743</v>
       </c>
       <c r="B8743">
-        <v>0.8977410670482061</v>
+        <v>0.897741067048206</v>
       </c>
     </row>
     <row r="8744" spans="1:2">
@@ -70327,7 +70327,7 @@
         <v>8748</v>
       </c>
       <c r="B8748">
-        <v>0.4211196368732603</v>
+        <v>0.4211196368732602</v>
       </c>
     </row>
     <row r="8749" spans="1:2">
@@ -70351,7 +70351,7 @@
         <v>8751</v>
       </c>
       <c r="B8751">
-        <v>0.4731661226291286</v>
+        <v>0.4731661226291285</v>
       </c>
     </row>
     <row r="8752" spans="1:2">
